--- a/UAT GISBEGAL.xlsx
+++ b/UAT GISBEGAL.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD612CA-CAF1-42AF-9089-2ACB188D84A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B7DAA-E789-4B0F-BD11-2B9C4D5CF260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Umum" sheetId="2" r:id="rId2"/>
+    <sheet name="POLRES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -380,6 +381,45 @@
   </si>
   <si>
     <t>Seberapa setuju Anda dengan pernyataan bahwa  secara keseluruhan website ini bermanfaat</t>
+  </si>
+  <si>
+    <t>Seberapa setuju Anda dengan pernyataan bahwa  tombol-tombol seperti “Cek Daerahmu”, “Curas”, atau “Curanmor”, dll mudah ditemukan dan dimengerti fungsinya?</t>
+  </si>
+  <si>
+    <t>Seberapa mudah Anda memahami struktur menu di dashboard admin (seperti menu Kecamatan, Klaster, Curas &amp; Curanmor, Hasil Pemetaan, dll)?</t>
+  </si>
+  <si>
+    <t>Seberapa jelas dan mudah dipahami tampilan dari ringkasan data data utama yang ada pada halaman dashboard</t>
+  </si>
+  <si>
+    <t>Seberapa mudah Anda bisa memahami data seperti kecamatan dan klaster pada masing masing halaman tersebut</t>
+  </si>
+  <si>
+    <t>Seberapa mudah Anda bisa memahami data Curas dan Curanmor pada masing masing halaman tersebut</t>
+  </si>
+  <si>
+    <t>Seberapa mudah Anda bisa memahami penambahan data Curas dan Curanmor pada halaman detail</t>
+  </si>
+  <si>
+    <t>Seberapa setuju Anda jika proses untuk menambah, mengedit, atau menghapus data (CRUD) untuk data Curas dan Curanmor sudah cukup mudah dilakukan?</t>
+  </si>
+  <si>
+    <t>Seberapa setuju Anda jika validasi atau notifikasi setelah menginput atau mengubah data sudah cukup membantu (misalnya: pesan sukses dan gagal)</t>
+  </si>
+  <si>
+    <t>Seberapa setuju Anda jika proses untuk menambah, mengedit, atau menghapus data (CRUD) untuk data kecamatan dan klaster sudah cukup mudah dilakukan?</t>
+  </si>
+  <si>
+    <t>Seberapa mudah Anda dalam memahami detail perhitungan k-means yang ada ?</t>
+  </si>
+  <si>
+    <t>C. Pengujian Secara Keseluruhan</t>
+  </si>
+  <si>
+    <t>A. Pengujian Untuk Akses Pengguna dan Admin</t>
+  </si>
+  <si>
+    <t>B. Pengujian Untuk Akses Admin</t>
   </si>
 </sst>
 </file>
@@ -593,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,27 +661,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -651,6 +691,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,12 +763,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,6 +771,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,33 +1169,33 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1957,73 +2009,73 @@
       <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
+      <c r="A86" s="13">
         <v>2</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
       <c r="I86" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="12">
+      <c r="A92" s="13">
         <v>3</v>
       </c>
       <c r="B92" s="15" t="s">
@@ -2034,47 +2086,47 @@
       <c r="E92" s="15"/>
     </row>
     <row r="93" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
+      <c r="A94" s="13">
         <v>4</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12">
+      <c r="A96" s="13">
         <v>5</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
     </row>
     <row r="97" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
@@ -2099,12 +2151,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="B92:E92"/>
@@ -2117,25 +2182,12 @@
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="A86:A91"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="A96:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2146,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5AA470-3FE3-40EB-A7B3-B029ED87CB95}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,27 +2211,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -2200,12 +2252,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2216,12 +2268,12 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2232,12 +2284,12 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2248,12 +2300,12 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2264,12 +2316,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2280,12 +2332,12 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2296,12 +2348,12 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2312,12 +2364,12 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2328,12 +2380,12 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -2344,12 +2396,12 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2360,12 +2412,12 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2376,12 +2428,12 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2392,12 +2444,12 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2408,12 +2460,12 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2440,12 +2492,12 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2453,7 +2505,7 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+      <c r="A19" s="24">
         <v>17</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2462,84 +2514,84 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="13">
         <v>18</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2548,139 +2600,116 @@
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
+      <c r="A27" s="46">
         <v>19</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="47"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
       <c r="E28" s="49"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>20</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>21</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B17:E17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F19:J32"/>
@@ -2696,6 +2725,787 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A1F9A-91CC-43D1-87ED-EB159AD0E01C}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="50"/>
+    <col min="2" max="2" width="21.28515625" style="50" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="50"/>
+    <col min="5" max="5" width="27.28515625" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>4</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>6</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>7</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>9</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>3</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>4</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>5</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>6</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>7</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>8</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>9</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>10</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>11</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>12</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>13</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UAT GISBEGAL.xlsx
+++ b/UAT GISBEGAL.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B7DAA-E789-4B0F-BD11-2B9C4D5CF260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A14A8D-A832-4EA8-89C5-F320AF5535FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Umum" sheetId="2" r:id="rId2"/>
     <sheet name="POLRES" sheetId="3" r:id="rId3"/>
+    <sheet name="Hasil" sheetId="4" r:id="rId4"/>
+    <sheet name="Hasil Polres" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -420,13 +422,121 @@
   </si>
   <si>
     <t>B. Pengujian Untuk Akses Admin</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>PERTANYAAN</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>Kode Pertanyaan</t>
+  </si>
+  <si>
+    <t>Jumlah Responden Setiap Kategori Penilaian</t>
+  </si>
+  <si>
+    <t>Nilai Maksimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nilai </t>
+  </si>
+  <si>
+    <t>Skor</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +564,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,7 +593,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -629,11 +759,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,27 +819,114 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -691,98 +937,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,21 +1312,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
@@ -1140,22 +1338,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1169,42 +1367,42 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1273,13 +1471,13 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1392,13 +1590,13 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1511,13 +1709,13 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1641,13 +1839,13 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -1771,13 +1969,13 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -1846,13 +2044,13 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -1877,22 +2075,22 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -1994,13 +2192,13 @@
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -2009,124 +2207,124 @@
       <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="A86" s="14">
         <v>2</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
       <c r="I86" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
+      <c r="A92" s="14">
         <v>3</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
     </row>
     <row r="93" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
+      <c r="A94" s="14">
         <v>4</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
     </row>
     <row r="95" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
     </row>
     <row r="96" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+      <c r="A96" s="14">
         <v>5</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
@@ -2151,25 +2349,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="A96:A97"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="B92:E92"/>
@@ -2182,12 +2367,25 @@
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2198,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5AA470-3FE3-40EB-A7B3-B029ED87CB95}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:J67"/>
     </sheetView>
   </sheetViews>
@@ -2211,27 +2409,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -2252,12 +2450,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2268,12 +2466,12 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2284,12 +2482,12 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2300,12 +2498,12 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2316,12 +2514,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2332,12 +2530,12 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2348,12 +2546,12 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2364,12 +2562,12 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2380,12 +2578,12 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -2396,12 +2594,12 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2412,12 +2610,12 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2428,12 +2626,12 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2444,12 +2642,12 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2460,12 +2658,12 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2476,12 +2674,12 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2492,12 +2690,12 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2505,202 +2703,202 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="44">
         <v>17</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="14">
         <v>18</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46">
+      <c r="A27" s="43">
         <v>19</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="14">
         <v>20</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="14">
         <v>21</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
@@ -2710,6 +2908,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F19:J32"/>
@@ -2726,28 +2946,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2758,41 +2956,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A1F9A-91CC-43D1-87ED-EB159AD0E01C}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="50"/>
-    <col min="2" max="2" width="21.28515625" style="50" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="50"/>
-    <col min="5" max="5" width="27.28515625" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="21.28515625" style="12" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="12"/>
+    <col min="5" max="5" width="27.28515625" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -2813,347 +3011,347 @@
       <c r="A3" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -3175,12 +3373,12 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3191,12 +3389,12 @@
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3207,12 +3405,12 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3223,12 +3421,12 @@
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3239,12 +3437,12 @@
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3252,229 +3450,221 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="14">
         <v>7</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
+      <c r="A33" s="14">
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="14">
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
+      <c r="A37" s="14">
         <v>10</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
+      <c r="A39" s="14">
         <v>11</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
+      <c r="A41" s="14">
         <v>12</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
+      <c r="A43" s="14">
         <v>13</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A3:J3"/>
@@ -3491,23 +3681,1790 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9101460F-3A1E-48F8-BAA2-713B7683A3CD}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="65" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="65"/>
+    <col min="11" max="11" width="58.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60"/>
+      <c r="B3" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="55">
+        <v>12</v>
+      </c>
+      <c r="C4" s="55">
+        <v>13</v>
+      </c>
+      <c r="D4" s="55">
+        <v>4</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0</v>
+      </c>
+      <c r="G4" s="65">
+        <f xml:space="preserve"> (B4*5) + (C4*4) + (D4*3) + (E4*2) + (F4*1)</f>
+        <v>124</v>
+      </c>
+      <c r="H4" s="65">
+        <f xml:space="preserve"> (B4 + C4 + D4 + E4 + F4) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I4" s="65">
+        <f xml:space="preserve"> (G4 / H4) * 100</f>
+        <v>85.517241379310349</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="55">
+        <v>15</v>
+      </c>
+      <c r="C5" s="55">
+        <v>12</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0</v>
+      </c>
+      <c r="E5" s="55">
+        <v>2</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+      <c r="G5" s="65">
+        <f xml:space="preserve"> (B5*5) + (C5*4) + (D5*3) + (E5*2) + (F5*1)</f>
+        <v>127</v>
+      </c>
+      <c r="H5" s="65">
+        <f xml:space="preserve"> (B5 + C5 + D5 + E5 + F5) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I5" s="65">
+        <f xml:space="preserve"> (G5 / H5) * 100</f>
+        <v>87.586206896551715</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="55">
+        <v>21</v>
+      </c>
+      <c r="C6" s="55">
+        <v>7</v>
+      </c>
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="65">
+        <f xml:space="preserve"> (B6*5) + (C6*4) + (D6*3) + (E6*2) + (F6*1)</f>
+        <v>136</v>
+      </c>
+      <c r="H6" s="65">
+        <f xml:space="preserve"> (B6 + C6 + D6 + E6 + F6) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I6" s="65">
+        <f t="shared" ref="I6:I18" si="0" xml:space="preserve"> (G6 / H6) * 100</f>
+        <v>93.793103448275858</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="55">
+        <v>7</v>
+      </c>
+      <c r="C7" s="55">
+        <v>13</v>
+      </c>
+      <c r="D7" s="55">
+        <v>9</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0</v>
+      </c>
+      <c r="G7" s="65">
+        <f xml:space="preserve"> (B7*5) + (C7*4) + (D7*3) + (E7*2) + (F7*1)</f>
+        <v>114</v>
+      </c>
+      <c r="H7" s="65">
+        <f xml:space="preserve"> (B7 + C7 + D7 + E7 + F7) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I7" s="65">
+        <f t="shared" si="0"/>
+        <v>78.620689655172413</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="55">
+        <v>8</v>
+      </c>
+      <c r="C8" s="55">
+        <v>18</v>
+      </c>
+      <c r="D8" s="55">
+        <v>1</v>
+      </c>
+      <c r="E8" s="55">
+        <v>2</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0</v>
+      </c>
+      <c r="G8" s="65">
+        <f xml:space="preserve"> (B8*5) + (C8*4) + (D8*3) + (E8*2) + (F8*1)</f>
+        <v>119</v>
+      </c>
+      <c r="H8" s="65">
+        <f xml:space="preserve"> (B8 + C8 + D8 + E8 + F8) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I8" s="65">
+        <f t="shared" si="0"/>
+        <v>82.068965517241381</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="55">
+        <v>24</v>
+      </c>
+      <c r="C9" s="55">
+        <v>4</v>
+      </c>
+      <c r="D9" s="55">
+        <v>1</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0</v>
+      </c>
+      <c r="G9" s="65">
+        <f xml:space="preserve"> (B9*5) + (C9*4) + (D9*3) + (E9*2) + (F9*1)</f>
+        <v>139</v>
+      </c>
+      <c r="H9" s="65">
+        <f xml:space="preserve"> (B9 + C9 + D9 + E9 + F9) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I9" s="65">
+        <f t="shared" si="0"/>
+        <v>95.862068965517238</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="55">
+        <v>20</v>
+      </c>
+      <c r="C10" s="55">
+        <v>9</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0</v>
+      </c>
+      <c r="G10" s="65">
+        <f xml:space="preserve"> (B10*5) + (C10*4) + (D10*3) + (E10*2) + (F10*1)</f>
+        <v>136</v>
+      </c>
+      <c r="H10" s="65">
+        <f xml:space="preserve"> (B10 + C10 + D10 + E10 + F10) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I10" s="65">
+        <f t="shared" si="0"/>
+        <v>93.793103448275858</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="55">
+        <v>16</v>
+      </c>
+      <c r="C11" s="55">
+        <v>13</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0</v>
+      </c>
+      <c r="G11" s="65">
+        <f xml:space="preserve"> (B11*5) + (C11*4) + (D11*3) + (E11*2) + (F11*1)</f>
+        <v>132</v>
+      </c>
+      <c r="H11" s="65">
+        <f xml:space="preserve"> (B11 + C11 + D11 + E11 + F11) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I11" s="65">
+        <f t="shared" si="0"/>
+        <v>91.034482758620697</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="55">
+        <v>18</v>
+      </c>
+      <c r="C12" s="55">
+        <v>10</v>
+      </c>
+      <c r="D12" s="55">
+        <v>1</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0</v>
+      </c>
+      <c r="G12" s="65">
+        <f xml:space="preserve"> (B12*5) + (C12*4) + (D12*3) + (E12*2) + (F12*1)</f>
+        <v>133</v>
+      </c>
+      <c r="H12" s="65">
+        <f xml:space="preserve"> (B12 + C12 + D12 + E12 + F12) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I12" s="65">
+        <f t="shared" si="0"/>
+        <v>91.724137931034477</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="55">
+        <v>19</v>
+      </c>
+      <c r="C13" s="55">
+        <v>6</v>
+      </c>
+      <c r="D13" s="55">
+        <v>4</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="65">
+        <f xml:space="preserve"> (B13*5) + (C13*4) + (D13*3) + (E13*2) + (F13*1)</f>
+        <v>131</v>
+      </c>
+      <c r="H13" s="65">
+        <f xml:space="preserve"> (B13 + C13 + D13 + E13 + F13) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I13" s="65">
+        <f t="shared" si="0"/>
+        <v>90.344827586206904</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="55">
+        <v>15</v>
+      </c>
+      <c r="C14" s="55">
+        <v>14</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="65">
+        <f xml:space="preserve"> (B14*5) + (C14*4) + (D14*3) + (E14*2) + (F14*1)</f>
+        <v>131</v>
+      </c>
+      <c r="H14" s="65">
+        <f xml:space="preserve"> (B14 + C14 + D14 + E14 + F14) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I14" s="65">
+        <f t="shared" si="0"/>
+        <v>90.344827586206904</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="55">
+        <v>19</v>
+      </c>
+      <c r="C15" s="55">
+        <v>8</v>
+      </c>
+      <c r="D15" s="55">
+        <v>2</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="65">
+        <f xml:space="preserve"> (B15*5) + (C15*4) + (D15*3) + (E15*2) + (F15*1)</f>
+        <v>133</v>
+      </c>
+      <c r="H15" s="65">
+        <f xml:space="preserve"> (B15 + C15 + D15 + E15 + F15) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I15" s="65">
+        <f t="shared" si="0"/>
+        <v>91.724137931034477</v>
+      </c>
+      <c r="K15" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="55">
+        <v>14</v>
+      </c>
+      <c r="C16" s="55">
+        <v>12</v>
+      </c>
+      <c r="D16" s="55">
+        <v>3</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="65">
+        <f xml:space="preserve"> (B16*5) + (C16*4) + (D16*3) + (E16*2) + (F16*1)</f>
+        <v>127</v>
+      </c>
+      <c r="H16" s="65">
+        <f xml:space="preserve"> (B16 + C16 + D16 + E16 + F16) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I16" s="65">
+        <f t="shared" si="0"/>
+        <v>87.586206896551715</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="55">
+        <v>21</v>
+      </c>
+      <c r="C17" s="55">
+        <v>7</v>
+      </c>
+      <c r="D17" s="55">
+        <v>1</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="65">
+        <f xml:space="preserve"> (B17*5) + (C17*4) + (D17*3) + (E17*2) + (F17*1)</f>
+        <v>136</v>
+      </c>
+      <c r="H17" s="65">
+        <f xml:space="preserve"> (B17 + C17 + D17 + E17 + F17) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I17" s="65">
+        <f t="shared" si="0"/>
+        <v>93.793103448275858</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="55">
+        <v>21</v>
+      </c>
+      <c r="C18" s="55">
+        <v>6</v>
+      </c>
+      <c r="D18" s="55">
+        <v>2</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="65">
+        <f xml:space="preserve"> (B18*5) + (C18*4) + (D18*3) + (E18*2) + (F18*1)</f>
+        <v>135</v>
+      </c>
+      <c r="H18" s="65">
+        <f xml:space="preserve"> (B18 + C18 + D18 + E18 + F18) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I18" s="65">
+        <f t="shared" si="0"/>
+        <v>93.103448275862064</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="57">
+        <v>14</v>
+      </c>
+      <c r="C19" s="57">
+        <v>13</v>
+      </c>
+      <c r="D19" s="57">
+        <v>2</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0</v>
+      </c>
+      <c r="G19" s="65">
+        <f xml:space="preserve"> (B19*5) + (C19*4) + (D19*3) + (E19*2) + (F19*1)</f>
+        <v>128</v>
+      </c>
+      <c r="H19" s="65">
+        <f xml:space="preserve"> (B19 + C19 + D19 + E19 + F19) * 5</f>
+        <v>145</v>
+      </c>
+      <c r="I19" s="65">
+        <f xml:space="preserve"> (G19 / H19) * 100</f>
+        <v>88.275862068965523</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="65">
+        <f>SUM(B4:B19)</f>
+        <v>264</v>
+      </c>
+      <c r="C20" s="65">
+        <f t="shared" ref="C20:F20" si="1">SUM(C4:C19)</f>
+        <v>165</v>
+      </c>
+      <c r="D20" s="65">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E20" s="65">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="65">
+        <f>SUM(G4:G19)</f>
+        <v>2081</v>
+      </c>
+      <c r="H20" s="65">
+        <f>SUM(H4:H19)</f>
+        <v>2320</v>
+      </c>
+      <c r="I20" s="65">
+        <f xml:space="preserve"> (G20 / H20) * 100</f>
+        <v>89.698275862068968</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED6D8C-022B-487D-AFD0-5E24BC7F85F9}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="75.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60"/>
+      <c r="B3" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0</v>
+      </c>
+      <c r="F4" s="55">
+        <v>0</v>
+      </c>
+      <c r="G4" s="66">
+        <f xml:space="preserve"> (B4*5) + (C4*4) + (D4*3) + (E4*2) + (F4*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H4" s="66">
+        <f xml:space="preserve"> (B4 + C4 + D4 + E4 + F4) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="66">
+        <f xml:space="preserve"> (G4 / H4) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
+        <v>0</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0</v>
+      </c>
+      <c r="G5" s="66">
+        <f xml:space="preserve"> (B5*5) + (C5*4) + (D5*3) + (E5*2) + (F5*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="66">
+        <f xml:space="preserve"> (B5 + C5 + D5 + E5 + F5) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="66">
+        <f xml:space="preserve"> (G5 / H5) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="55">
+        <v>0</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0</v>
+      </c>
+      <c r="F6" s="55">
+        <v>0</v>
+      </c>
+      <c r="G6" s="66">
+        <f xml:space="preserve"> (B6*5) + (C6*4) + (D6*3) + (E6*2) + (F6*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="66">
+        <f xml:space="preserve"> (B6 + C6 + D6 + E6 + F6) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="66">
+        <f t="shared" ref="I6:I18" si="0" xml:space="preserve"> (G6 / H6) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="55">
+        <v>0</v>
+      </c>
+      <c r="C7" s="55">
+        <v>0</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0</v>
+      </c>
+      <c r="E7" s="55">
+        <v>1</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0</v>
+      </c>
+      <c r="G7" s="66">
+        <f xml:space="preserve"> (B7*5) + (C7*4) + (D7*3) + (E7*2) + (F7*1)</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="66">
+        <f xml:space="preserve"> (B7 + C7 + D7 + E7 + F7) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="66">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="55">
+        <v>0</v>
+      </c>
+      <c r="C8" s="55">
+        <v>0</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0</v>
+      </c>
+      <c r="E8" s="55">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0</v>
+      </c>
+      <c r="G8" s="66">
+        <f xml:space="preserve"> (B8*5) + (C8*4) + (D8*3) + (E8*2) + (F8*1)</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="66">
+        <f xml:space="preserve"> (B8 + C8 + D8 + E8 + F8) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="66">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="55">
+        <v>0</v>
+      </c>
+      <c r="D9" s="55">
+        <v>0</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0</v>
+      </c>
+      <c r="G9" s="66">
+        <f xml:space="preserve"> (B9*5) + (C9*4) + (D9*3) + (E9*2) + (F9*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="66">
+        <f xml:space="preserve"> (B9 + C9 + D9 + E9 + F9) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="55">
+        <v>1</v>
+      </c>
+      <c r="C10" s="55">
+        <v>0</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0</v>
+      </c>
+      <c r="G10" s="66">
+        <f xml:space="preserve"> (B10*5) + (C10*4) + (D10*3) + (E10*2) + (F10*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="66">
+        <f xml:space="preserve"> (B10 + C10 + D10 + E10 + F10) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="55">
+        <v>0</v>
+      </c>
+      <c r="C11" s="55">
+        <v>1</v>
+      </c>
+      <c r="D11" s="55">
+        <v>0</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0</v>
+      </c>
+      <c r="G11" s="66">
+        <f xml:space="preserve"> (B11*5) + (C11*4) + (D11*3) + (E11*2) + (F11*1)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="66">
+        <f xml:space="preserve"> (B11 + C11 + D11 + E11 + F11) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I11" s="66">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="55">
+        <v>0</v>
+      </c>
+      <c r="C12" s="55">
+        <v>1</v>
+      </c>
+      <c r="D12" s="55">
+        <v>0</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0</v>
+      </c>
+      <c r="G12" s="66">
+        <f xml:space="preserve"> (B12*5) + (C12*4) + (D12*3) + (E12*2) + (F12*1)</f>
+        <v>4</v>
+      </c>
+      <c r="H12" s="66">
+        <f xml:space="preserve"> (B12 + C12 + D12 + E12 + F12) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I12" s="66">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="55">
+        <v>1</v>
+      </c>
+      <c r="C13" s="55">
+        <v>0</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="66">
+        <f xml:space="preserve"> (B13*5) + (C13*4) + (D13*3) + (E13*2) + (F13*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="66">
+        <f xml:space="preserve"> (B13 + C13 + D13 + E13 + F13) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="55">
+        <v>0</v>
+      </c>
+      <c r="C14" s="55">
+        <v>1</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="66">
+        <f xml:space="preserve"> (B14*5) + (C14*4) + (D14*3) + (E14*2) + (F14*1)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="66">
+        <f xml:space="preserve"> (B14 + C14 + D14 + E14 + F14) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I14" s="66">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="55">
+        <v>0</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="66">
+        <f xml:space="preserve"> (B15*5) + (C15*4) + (D15*3) + (E15*2) + (F15*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="66">
+        <f xml:space="preserve"> (B15 + C15 + D15 + E15 + F15) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="55">
+        <v>1</v>
+      </c>
+      <c r="C16" s="55">
+        <v>0</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="66">
+        <f xml:space="preserve"> (B16*5) + (C16*4) + (D16*3) + (E16*2) + (F16*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H16" s="66">
+        <f xml:space="preserve"> (B16 + C16 + D16 + E16 + F16) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I16" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="55">
+        <v>1</v>
+      </c>
+      <c r="C17" s="55">
+        <v>0</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="66">
+        <f xml:space="preserve"> (B17*5) + (C17*4) + (D17*3) + (E17*2) + (F17*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="66">
+        <f xml:space="preserve"> (B17 + C17 + D17 + E17 + F17) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="55">
+        <v>1</v>
+      </c>
+      <c r="C18" s="55">
+        <v>0</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="66">
+        <f xml:space="preserve"> (B18*5) + (C18*4) + (D18*3) + (E18*2) + (F18*1)</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="66">
+        <f xml:space="preserve"> (B18 + C18 + D18 + E18 + F18) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="66">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="57">
+        <v>0</v>
+      </c>
+      <c r="C19" s="57">
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
+        <v>0</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0</v>
+      </c>
+      <c r="G19" s="66">
+        <f xml:space="preserve"> (B19*5) + (C19*4) + (D19*3) + (E19*2) + (F19*1)</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="66">
+        <f xml:space="preserve"> (B19 + C19 + D19 + E19 + F19) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I19" s="66">
+        <f xml:space="preserve"> (G19 / H19) * 100</f>
+        <v>80</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="66">
+        <v>0</v>
+      </c>
+      <c r="C20" s="66">
+        <v>1</v>
+      </c>
+      <c r="D20" s="66">
+        <v>0</v>
+      </c>
+      <c r="E20" s="66">
+        <v>0</v>
+      </c>
+      <c r="F20" s="66">
+        <v>0</v>
+      </c>
+      <c r="G20" s="66">
+        <f t="shared" ref="G20:G28" si="1" xml:space="preserve"> (B20*5) + (C20*4) + (D20*3) + (E20*2) + (F20*1)</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="66">
+        <f t="shared" ref="H20:H28" si="2" xml:space="preserve"> (B20 + C20 + D20 + E20 + F20) * 5</f>
+        <v>5</v>
+      </c>
+      <c r="I20" s="66">
+        <f t="shared" ref="I20:I28" si="3" xml:space="preserve"> (G20 / H20) * 100</f>
+        <v>80</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="62">
+        <v>0</v>
+      </c>
+      <c r="C21" s="66">
+        <v>1</v>
+      </c>
+      <c r="D21" s="62">
+        <v>0</v>
+      </c>
+      <c r="E21" s="62">
+        <v>0</v>
+      </c>
+      <c r="F21" s="62">
+        <v>0</v>
+      </c>
+      <c r="G21" s="66">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H21" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I21" s="66">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="66">
+        <v>0</v>
+      </c>
+      <c r="C22" s="62">
+        <v>0</v>
+      </c>
+      <c r="D22" s="66">
+        <v>0</v>
+      </c>
+      <c r="E22" s="66">
+        <v>1</v>
+      </c>
+      <c r="F22" s="66">
+        <v>0</v>
+      </c>
+      <c r="G22" s="66">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="66">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="66">
+        <v>0</v>
+      </c>
+      <c r="C23" s="66">
+        <v>1</v>
+      </c>
+      <c r="D23" s="66">
+        <v>0</v>
+      </c>
+      <c r="E23" s="66">
+        <v>0</v>
+      </c>
+      <c r="F23" s="66">
+        <v>0</v>
+      </c>
+      <c r="G23" s="66">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="66">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="66">
+        <v>1</v>
+      </c>
+      <c r="C24" s="55">
+        <v>0</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0</v>
+      </c>
+      <c r="E24" s="55">
+        <v>0</v>
+      </c>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="66">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H24" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I24" s="66">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="66">
+        <v>1</v>
+      </c>
+      <c r="C25" s="55">
+        <v>0</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="66">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H25" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I25" s="66">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="66">
+        <v>1</v>
+      </c>
+      <c r="C26" s="55">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
+      <c r="F26" s="55">
+        <v>0</v>
+      </c>
+      <c r="G26" s="66">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="66">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="66">
+        <v>1</v>
+      </c>
+      <c r="C27" s="55">
+        <v>0</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0</v>
+      </c>
+      <c r="E27" s="55">
+        <v>0</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0</v>
+      </c>
+      <c r="G27" s="66">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="66">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="66">
+        <v>0</v>
+      </c>
+      <c r="C28" s="66">
+        <v>1</v>
+      </c>
+      <c r="D28" s="55">
+        <v>0</v>
+      </c>
+      <c r="E28" s="55">
+        <v>0</v>
+      </c>
+      <c r="F28" s="55">
+        <v>0</v>
+      </c>
+      <c r="G28" s="66">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="66">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I28" s="66">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66">
+        <f>SUM(B4:B28)</f>
+        <v>14</v>
+      </c>
+      <c r="C29" s="66">
+        <f t="shared" ref="C29:F29" si="4">SUM(C4:C28)</f>
+        <v>8</v>
+      </c>
+      <c r="D29" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="66">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="66">
+        <f t="shared" ref="G29" si="5">SUM(G4:G28)</f>
+        <v>108</v>
+      </c>
+      <c r="H29" s="66">
+        <f>SUM(H4:H28)</f>
+        <v>125</v>
+      </c>
+      <c r="I29" s="66">
+        <f>(G29/H29)*100</f>
+        <v>86.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UAT GISBEGAL.xlsx
+++ b/UAT GISBEGAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A14A8D-A832-4EA8-89C5-F320AF5535FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABC489-6F10-4042-B666-795B617BAF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
   </bookViews>
@@ -585,12 +585,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -825,27 +831,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,12 +958,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,15 +967,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -946,40 +976,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1298,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B60E703-96E1-4978-B621-1768E89B3096}">
   <dimension ref="A2:I100"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:E97"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,21 +1318,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
@@ -1338,22 +1344,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1367,42 +1373,42 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1471,13 +1477,13 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1590,13 +1596,13 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1709,13 +1715,13 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1839,13 +1845,13 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -1969,13 +1975,13 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2044,13 +2050,13 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -2075,22 +2081,22 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -2192,13 +2198,13 @@
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -2207,124 +2213,124 @@
       <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+      <c r="A86" s="23">
         <v>2</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
       <c r="I86" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+      <c r="A92" s="23">
         <v>3</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+      <c r="A94" s="23">
         <v>4</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
     </row>
     <row r="95" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
     </row>
     <row r="96" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14">
+      <c r="A96" s="23">
         <v>5</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="21"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
     </row>
     <row r="97" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
@@ -2349,12 +2355,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="B92:E92"/>
@@ -2367,25 +2386,12 @@
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="A86:A91"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="A96:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2409,27 +2415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -2450,12 +2456,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2466,12 +2472,12 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2482,12 +2488,12 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2498,12 +2504,12 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2514,12 +2520,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2530,12 +2536,12 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2546,12 +2552,12 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2562,12 +2568,12 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2578,12 +2584,12 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -2594,12 +2600,12 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2610,12 +2616,12 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2626,12 +2632,12 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2642,12 +2648,12 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2658,12 +2664,12 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2674,12 +2680,12 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2690,12 +2696,12 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2703,202 +2709,202 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="23">
         <v>18</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="56">
         <v>19</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="23">
         <v>20</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="23">
         <v>21</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
@@ -2908,28 +2914,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F19:J32"/>
@@ -2946,6 +2930,28 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2970,27 +2976,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -3008,29 +3014,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -3041,12 +3047,12 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -3057,12 +3063,12 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -3073,12 +3079,12 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -3089,12 +3095,12 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -3105,12 +3111,12 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -3121,12 +3127,12 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -3137,12 +3143,12 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -3153,12 +3159,12 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -3169,12 +3175,12 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -3182,29 +3188,29 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -3215,12 +3221,12 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -3231,12 +3237,12 @@
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -3247,12 +3253,12 @@
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3263,12 +3269,12 @@
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -3279,12 +3285,12 @@
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -3295,12 +3301,12 @@
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -3311,12 +3317,12 @@
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -3327,12 +3333,12 @@
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -3340,29 +3346,29 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3373,12 +3379,12 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3389,12 +3395,12 @@
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3405,12 +3411,12 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3421,12 +3427,12 @@
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3437,12 +3443,12 @@
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3450,221 +3456,232 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="23">
         <v>7</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="23">
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="23">
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="23">
         <v>10</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="23">
         <v>11</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="23">
         <v>12</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="23">
         <v>13</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A3:J3"/>
@@ -3681,29 +3698,18 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3720,648 +3726,648 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="65" customWidth="1"/>
-    <col min="2" max="9" width="9.140625" style="65"/>
+    <col min="1" max="1" width="13.42578125" style="20" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="20"/>
     <col min="11" max="11" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="59" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="39" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="K3" s="26"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="15">
         <v>12</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="15">
         <v>13</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="15">
         <v>4</v>
       </c>
-      <c r="E4" s="55">
-        <v>0</v>
-      </c>
-      <c r="F4" s="55">
-        <v>0</v>
-      </c>
-      <c r="G4" s="65">
-        <f xml:space="preserve"> (B4*5) + (C4*4) + (D4*3) + (E4*2) + (F4*1)</f>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:G19" si="0" xml:space="preserve"> (B4*5) + (C4*4) + (D4*3) + (E4*2) + (F4*1)</f>
         <v>124</v>
       </c>
-      <c r="H4" s="65">
-        <f xml:space="preserve"> (B4 + C4 + D4 + E4 + F4) * 5</f>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H19" si="1" xml:space="preserve"> (B4 + C4 + D4 + E4 + F4) * 5</f>
         <v>145</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="20">
         <f xml:space="preserve"> (G4 / H4) * 100</f>
         <v>85.517241379310349</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="19" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="15">
         <v>15</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="55">
-        <v>0</v>
-      </c>
-      <c r="E5" s="55">
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
         <v>2</v>
       </c>
-      <c r="F5" s="55">
-        <v>0</v>
-      </c>
-      <c r="G5" s="65">
-        <f xml:space="preserve"> (B5*5) + (C5*4) + (D5*3) + (E5*2) + (F5*1)</f>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="H5" s="65">
-        <f xml:space="preserve"> (B5 + C5 + D5 + E5 + F5) * 5</f>
+      <c r="H5" s="20">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="20">
         <f xml:space="preserve"> (G5 / H5) * 100</f>
         <v>87.586206896551715</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="15">
         <v>21</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="15">
         <v>7</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="55">
-        <v>0</v>
-      </c>
-      <c r="F6" s="55">
-        <v>0</v>
-      </c>
-      <c r="G6" s="65">
-        <f xml:space="preserve"> (B6*5) + (C6*4) + (D6*3) + (E6*2) + (F6*1)</f>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="H6" s="65">
-        <f xml:space="preserve"> (B6 + C6 + D6 + E6 + F6) * 5</f>
+      <c r="H6" s="20">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="I6" s="65">
-        <f t="shared" ref="I6:I18" si="0" xml:space="preserve"> (G6 / H6) * 100</f>
+      <c r="I6" s="20">
+        <f t="shared" ref="I6:I18" si="2" xml:space="preserve"> (G6 / H6) * 100</f>
         <v>93.793103448275858</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="15">
         <v>7</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="15">
         <v>13</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="15">
         <v>9</v>
       </c>
-      <c r="E7" s="55">
-        <v>0</v>
-      </c>
-      <c r="F7" s="55">
-        <v>0</v>
-      </c>
-      <c r="G7" s="65">
-        <f xml:space="preserve"> (B7*5) + (C7*4) + (D7*3) + (E7*2) + (F7*1)</f>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="H7" s="65">
-        <f xml:space="preserve"> (B7 + C7 + D7 + E7 + F7) * 5</f>
+      <c r="H7" s="20">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="20">
+        <f t="shared" si="2"/>
+        <v>78.620689655172413</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
         <f t="shared" si="0"/>
-        <v>78.620689655172413</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="55">
+        <v>119</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="2"/>
+        <v>82.068965517241381</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="15">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="2"/>
+        <v>95.862068965517238</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="15">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="2"/>
+        <v>93.793103448275858</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="15">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>13</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="2"/>
+        <v>91.034482758620697</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="15">
+        <v>18</v>
+      </c>
+      <c r="C12" s="15">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="2"/>
+        <v>91.724137931034477</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="15">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="2"/>
+        <v>90.344827586206904</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="15">
+        <v>15</v>
+      </c>
+      <c r="C14" s="15">
+        <v>14</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="2"/>
+        <v>90.344827586206904</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="15">
+        <v>19</v>
+      </c>
+      <c r="C15" s="15">
         <v>8</v>
       </c>
-      <c r="C8" s="55">
-        <v>18</v>
-      </c>
-      <c r="D8" s="55">
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="2"/>
+        <v>91.724137931034477</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="15">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="2"/>
+        <v>87.586206896551715</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="15">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15">
+        <v>7</v>
+      </c>
+      <c r="D17" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="2"/>
+        <v>93.793103448275858</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="15">
+        <v>21</v>
+      </c>
+      <c r="C18" s="15">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="F8" s="55">
-        <v>0</v>
-      </c>
-      <c r="G8" s="65">
-        <f xml:space="preserve"> (B8*5) + (C8*4) + (D8*3) + (E8*2) + (F8*1)</f>
-        <v>119</v>
-      </c>
-      <c r="H8" s="65">
-        <f xml:space="preserve"> (B8 + C8 + D8 + E8 + F8) * 5</f>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I18" s="20">
+        <f t="shared" si="2"/>
+        <v>93.103448275862064</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="17">
+        <v>14</v>
+      </c>
+      <c r="C19" s="17">
+        <v>13</v>
+      </c>
+      <c r="D19" s="17">
+        <v>2</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
         <f t="shared" si="0"/>
-        <v>82.068965517241381</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="55">
-        <v>24</v>
-      </c>
-      <c r="C9" s="55">
-        <v>4</v>
-      </c>
-      <c r="D9" s="55">
-        <v>1</v>
-      </c>
-      <c r="E9" s="55">
-        <v>0</v>
-      </c>
-      <c r="F9" s="55">
-        <v>0</v>
-      </c>
-      <c r="G9" s="65">
-        <f xml:space="preserve"> (B9*5) + (C9*4) + (D9*3) + (E9*2) + (F9*1)</f>
-        <v>139</v>
-      </c>
-      <c r="H9" s="65">
-        <f xml:space="preserve"> (B9 + C9 + D9 + E9 + F9) * 5</f>
+        <v>128</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="I9" s="65">
-        <f t="shared" si="0"/>
-        <v>95.862068965517238</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="55">
-        <v>20</v>
-      </c>
-      <c r="C10" s="55">
-        <v>9</v>
-      </c>
-      <c r="D10" s="55">
-        <v>0</v>
-      </c>
-      <c r="E10" s="55">
-        <v>0</v>
-      </c>
-      <c r="F10" s="55">
-        <v>0</v>
-      </c>
-      <c r="G10" s="65">
-        <f xml:space="preserve"> (B10*5) + (C10*4) + (D10*3) + (E10*2) + (F10*1)</f>
-        <v>136</v>
-      </c>
-      <c r="H10" s="65">
-        <f xml:space="preserve"> (B10 + C10 + D10 + E10 + F10) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I10" s="65">
-        <f t="shared" si="0"/>
-        <v>93.793103448275858</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="55">
-        <v>16</v>
-      </c>
-      <c r="C11" s="55">
-        <v>13</v>
-      </c>
-      <c r="D11" s="55">
-        <v>0</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0</v>
-      </c>
-      <c r="F11" s="55">
-        <v>0</v>
-      </c>
-      <c r="G11" s="65">
-        <f xml:space="preserve"> (B11*5) + (C11*4) + (D11*3) + (E11*2) + (F11*1)</f>
-        <v>132</v>
-      </c>
-      <c r="H11" s="65">
-        <f xml:space="preserve"> (B11 + C11 + D11 + E11 + F11) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I11" s="65">
-        <f t="shared" si="0"/>
-        <v>91.034482758620697</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="55">
-        <v>18</v>
-      </c>
-      <c r="C12" s="55">
-        <v>10</v>
-      </c>
-      <c r="D12" s="55">
-        <v>1</v>
-      </c>
-      <c r="E12" s="55">
-        <v>0</v>
-      </c>
-      <c r="F12" s="55">
-        <v>0</v>
-      </c>
-      <c r="G12" s="65">
-        <f xml:space="preserve"> (B12*5) + (C12*4) + (D12*3) + (E12*2) + (F12*1)</f>
-        <v>133</v>
-      </c>
-      <c r="H12" s="65">
-        <f xml:space="preserve"> (B12 + C12 + D12 + E12 + F12) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I12" s="65">
-        <f t="shared" si="0"/>
-        <v>91.724137931034477</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="55">
-        <v>19</v>
-      </c>
-      <c r="C13" s="55">
-        <v>6</v>
-      </c>
-      <c r="D13" s="55">
-        <v>4</v>
-      </c>
-      <c r="E13" s="55">
-        <v>0</v>
-      </c>
-      <c r="F13" s="55">
-        <v>0</v>
-      </c>
-      <c r="G13" s="65">
-        <f xml:space="preserve"> (B13*5) + (C13*4) + (D13*3) + (E13*2) + (F13*1)</f>
-        <v>131</v>
-      </c>
-      <c r="H13" s="65">
-        <f xml:space="preserve"> (B13 + C13 + D13 + E13 + F13) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I13" s="65">
-        <f t="shared" si="0"/>
-        <v>90.344827586206904</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="55">
-        <v>15</v>
-      </c>
-      <c r="C14" s="55">
-        <v>14</v>
-      </c>
-      <c r="D14" s="55">
-        <v>0</v>
-      </c>
-      <c r="E14" s="55">
-        <v>0</v>
-      </c>
-      <c r="F14" s="55">
-        <v>0</v>
-      </c>
-      <c r="G14" s="65">
-        <f xml:space="preserve"> (B14*5) + (C14*4) + (D14*3) + (E14*2) + (F14*1)</f>
-        <v>131</v>
-      </c>
-      <c r="H14" s="65">
-        <f xml:space="preserve"> (B14 + C14 + D14 + E14 + F14) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I14" s="65">
-        <f t="shared" si="0"/>
-        <v>90.344827586206904</v>
-      </c>
-      <c r="K14" s="56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="55">
-        <v>19</v>
-      </c>
-      <c r="C15" s="55">
-        <v>8</v>
-      </c>
-      <c r="D15" s="55">
-        <v>2</v>
-      </c>
-      <c r="E15" s="55">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55">
-        <v>0</v>
-      </c>
-      <c r="G15" s="65">
-        <f xml:space="preserve"> (B15*5) + (C15*4) + (D15*3) + (E15*2) + (F15*1)</f>
-        <v>133</v>
-      </c>
-      <c r="H15" s="65">
-        <f xml:space="preserve"> (B15 + C15 + D15 + E15 + F15) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I15" s="65">
-        <f t="shared" si="0"/>
-        <v>91.724137931034477</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="55">
-        <v>14</v>
-      </c>
-      <c r="C16" s="55">
-        <v>12</v>
-      </c>
-      <c r="D16" s="55">
-        <v>3</v>
-      </c>
-      <c r="E16" s="55">
-        <v>0</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0</v>
-      </c>
-      <c r="G16" s="65">
-        <f xml:space="preserve"> (B16*5) + (C16*4) + (D16*3) + (E16*2) + (F16*1)</f>
-        <v>127</v>
-      </c>
-      <c r="H16" s="65">
-        <f xml:space="preserve"> (B16 + C16 + D16 + E16 + F16) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I16" s="65">
-        <f t="shared" si="0"/>
-        <v>87.586206896551715</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="55">
-        <v>21</v>
-      </c>
-      <c r="C17" s="55">
-        <v>7</v>
-      </c>
-      <c r="D17" s="55">
-        <v>1</v>
-      </c>
-      <c r="E17" s="55">
-        <v>0</v>
-      </c>
-      <c r="F17" s="55">
-        <v>0</v>
-      </c>
-      <c r="G17" s="65">
-        <f xml:space="preserve"> (B17*5) + (C17*4) + (D17*3) + (E17*2) + (F17*1)</f>
-        <v>136</v>
-      </c>
-      <c r="H17" s="65">
-        <f xml:space="preserve"> (B17 + C17 + D17 + E17 + F17) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I17" s="65">
-        <f t="shared" si="0"/>
-        <v>93.793103448275858</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="55">
-        <v>21</v>
-      </c>
-      <c r="C18" s="55">
-        <v>6</v>
-      </c>
-      <c r="D18" s="55">
-        <v>2</v>
-      </c>
-      <c r="E18" s="55">
-        <v>0</v>
-      </c>
-      <c r="F18" s="55">
-        <v>0</v>
-      </c>
-      <c r="G18" s="65">
-        <f xml:space="preserve"> (B18*5) + (C18*4) + (D18*3) + (E18*2) + (F18*1)</f>
-        <v>135</v>
-      </c>
-      <c r="H18" s="65">
-        <f xml:space="preserve"> (B18 + C18 + D18 + E18 + F18) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I18" s="65">
-        <f t="shared" si="0"/>
-        <v>93.103448275862064</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="57">
-        <v>14</v>
-      </c>
-      <c r="C19" s="57">
-        <v>13</v>
-      </c>
-      <c r="D19" s="57">
-        <v>2</v>
-      </c>
-      <c r="E19" s="57">
-        <v>0</v>
-      </c>
-      <c r="F19" s="57">
-        <v>0</v>
-      </c>
-      <c r="G19" s="65">
-        <f xml:space="preserve"> (B19*5) + (C19*4) + (D19*3) + (E19*2) + (F19*1)</f>
-        <v>128</v>
-      </c>
-      <c r="H19" s="65">
-        <f xml:space="preserve"> (B19 + C19 + D19 + E19 + F19) * 5</f>
-        <v>145</v>
-      </c>
-      <c r="I19" s="65">
+      <c r="I19" s="20">
         <f xml:space="preserve"> (G19 / H19) * 100</f>
         <v>88.275862068965523</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="65">
+      <c r="B20" s="20">
         <f>SUM(B4:B19)</f>
         <v>264</v>
       </c>
-      <c r="C20" s="65">
-        <f t="shared" ref="C20:F20" si="1">SUM(C4:C19)</f>
+      <c r="C20" s="20">
+        <f t="shared" ref="C20:F20" si="3">SUM(C4:C19)</f>
         <v>165</v>
       </c>
-      <c r="D20" s="65">
-        <f t="shared" si="1"/>
+      <c r="D20" s="20">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="E20" s="65">
-        <f t="shared" si="1"/>
+      <c r="E20" s="20">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F20" s="65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="65">
+      <c r="F20" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
         <f>SUM(G4:G19)</f>
         <v>2081</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="20">
         <f>SUM(H4:H19)</f>
         <v>2320</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="20">
         <f xml:space="preserve"> (G20 / H20) * 100</f>
         <v>89.698275862068968</v>
       </c>
@@ -4384,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED6D8C-022B-487D-AFD0-5E24BC7F85F9}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:M14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4394,1050 +4400,1063 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="59" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="62" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="55">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55">
-        <v>0</v>
-      </c>
-      <c r="E4" s="55">
-        <v>0</v>
-      </c>
-      <c r="F4" s="55">
-        <v>0</v>
-      </c>
-      <c r="G4" s="66">
-        <f xml:space="preserve"> (B4*5) + (C4*4) + (D4*3) + (E4*2) + (F4*1)</f>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" ref="G4:G19" si="0" xml:space="preserve"> (B4*5) + (C4*4) + (D4*3) + (E4*2) + (F4*1)</f>
         <v>5</v>
       </c>
-      <c r="H4" s="66">
-        <f xml:space="preserve"> (B4 + C4 + D4 + E4 + F4) * 5</f>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H19" si="1" xml:space="preserve"> (B4 + C4 + D4 + E4 + F4) * 5</f>
         <v>5</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="21">
         <f xml:space="preserve"> (G4 / H4) * 100</f>
         <v>100</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="55">
-        <v>0</v>
-      </c>
-      <c r="D5" s="55">
-        <v>0</v>
-      </c>
-      <c r="E5" s="55">
-        <v>0</v>
-      </c>
-      <c r="F5" s="55">
-        <v>0</v>
-      </c>
-      <c r="G5" s="66">
-        <f xml:space="preserve"> (B5*5) + (C5*4) + (D5*3) + (E5*2) + (F5*1)</f>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H5" s="66">
-        <f xml:space="preserve"> (B5 + C5 + D5 + E5 + F5) * 5</f>
+      <c r="H5" s="21">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="21">
         <f xml:space="preserve"> (G5 / H5) * 100</f>
         <v>100</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="55">
-        <v>0</v>
-      </c>
-      <c r="D6" s="55">
-        <v>0</v>
-      </c>
-      <c r="E6" s="55">
-        <v>0</v>
-      </c>
-      <c r="F6" s="55">
-        <v>0</v>
-      </c>
-      <c r="G6" s="66">
-        <f xml:space="preserve"> (B6*5) + (C6*4) + (D6*3) + (E6*2) + (F6*1)</f>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H6" s="66">
-        <f xml:space="preserve"> (B6 + C6 + D6 + E6 + F6) * 5</f>
+      <c r="H6" s="21">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I6" s="66">
-        <f t="shared" ref="I6:I18" si="0" xml:space="preserve"> (G6 / H6) * 100</f>
+      <c r="I6" s="21">
+        <f t="shared" ref="I6:I18" si="2" xml:space="preserve"> (G6 / H6) * 100</f>
         <v>100</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="55">
-        <v>0</v>
-      </c>
-      <c r="C7" s="55">
-        <v>0</v>
-      </c>
-      <c r="D7" s="55">
-        <v>0</v>
-      </c>
-      <c r="E7" s="55">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="55">
-        <v>0</v>
-      </c>
-      <c r="G7" s="66">
-        <f xml:space="preserve"> (B7*5) + (C7*4) + (D7*3) + (E7*2) + (F7*1)</f>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H7" s="66">
-        <f xml:space="preserve"> (B7 + C7 + D7 + E7 + F7) * 5</f>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I7" s="66">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I8" s="66">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="55">
-        <v>0</v>
-      </c>
-      <c r="C8" s="55">
-        <v>0</v>
-      </c>
-      <c r="D8" s="55">
-        <v>0</v>
-      </c>
-      <c r="E8" s="55">
+      <c r="J8" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="55">
-        <v>0</v>
-      </c>
-      <c r="G8" s="66">
-        <f xml:space="preserve"> (B8*5) + (C8*4) + (D8*3) + (E8*2) + (F8*1)</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="66">
-        <f xml:space="preserve"> (B8 + C8 + D8 + E8 + F8) * 5</f>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I8" s="66">
+      <c r="H9" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="55">
+        <v>5</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="55">
-        <v>0</v>
-      </c>
-      <c r="D9" s="55">
-        <v>0</v>
-      </c>
-      <c r="E9" s="55">
-        <v>0</v>
-      </c>
-      <c r="F9" s="55">
-        <v>0</v>
-      </c>
-      <c r="G9" s="66">
-        <f xml:space="preserve"> (B9*5) + (C9*4) + (D9*3) + (E9*2) + (F9*1)</f>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H9" s="66">
-        <f xml:space="preserve"> (B9 + C9 + D9 + E9 + F9) * 5</f>
+      <c r="I11" s="21">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I12" s="21">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="55">
+      <c r="J13" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="55">
-        <v>0</v>
-      </c>
-      <c r="D10" s="55">
-        <v>0</v>
-      </c>
-      <c r="E10" s="55">
-        <v>0</v>
-      </c>
-      <c r="F10" s="55">
-        <v>0</v>
-      </c>
-      <c r="G10" s="66">
-        <f xml:space="preserve"> (B10*5) + (C10*4) + (D10*3) + (E10*2) + (F10*1)</f>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H10" s="66">
-        <f xml:space="preserve"> (B10 + C10 + D10 + E10 + F10) * 5</f>
+      <c r="I14" s="21">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I10" s="66">
+      <c r="H15" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="55">
-        <v>0</v>
-      </c>
-      <c r="C11" s="55">
+      <c r="J16" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="55">
-        <v>0</v>
-      </c>
-      <c r="E11" s="55">
-        <v>0</v>
-      </c>
-      <c r="F11" s="55">
-        <v>0</v>
-      </c>
-      <c r="G11" s="66">
-        <f xml:space="preserve"> (B11*5) + (C11*4) + (D11*3) + (E11*2) + (F11*1)</f>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H11" s="66">
-        <f xml:space="preserve"> (B11 + C11 + D11 + E11 + F11) * 5</f>
+      <c r="H19" s="21">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I11" s="66">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="55">
-        <v>0</v>
-      </c>
-      <c r="C12" s="55">
-        <v>1</v>
-      </c>
-      <c r="D12" s="55">
-        <v>0</v>
-      </c>
-      <c r="E12" s="55">
-        <v>0</v>
-      </c>
-      <c r="F12" s="55">
-        <v>0</v>
-      </c>
-      <c r="G12" s="66">
-        <f xml:space="preserve"> (B12*5) + (C12*4) + (D12*3) + (E12*2) + (F12*1)</f>
-        <v>4</v>
-      </c>
-      <c r="H12" s="66">
-        <f xml:space="preserve"> (B12 + C12 + D12 + E12 + F12) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I12" s="66">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="55">
-        <v>1</v>
-      </c>
-      <c r="C13" s="55">
-        <v>0</v>
-      </c>
-      <c r="D13" s="55">
-        <v>0</v>
-      </c>
-      <c r="E13" s="55">
-        <v>0</v>
-      </c>
-      <c r="F13" s="55">
-        <v>0</v>
-      </c>
-      <c r="G13" s="66">
-        <f xml:space="preserve"> (B13*5) + (C13*4) + (D13*3) + (E13*2) + (F13*1)</f>
-        <v>5</v>
-      </c>
-      <c r="H13" s="66">
-        <f xml:space="preserve"> (B13 + C13 + D13 + E13 + F13) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I13" s="66">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="55">
-        <v>0</v>
-      </c>
-      <c r="C14" s="55">
-        <v>1</v>
-      </c>
-      <c r="D14" s="55">
-        <v>0</v>
-      </c>
-      <c r="E14" s="55">
-        <v>0</v>
-      </c>
-      <c r="F14" s="55">
-        <v>0</v>
-      </c>
-      <c r="G14" s="66">
-        <f xml:space="preserve"> (B14*5) + (C14*4) + (D14*3) + (E14*2) + (F14*1)</f>
-        <v>4</v>
-      </c>
-      <c r="H14" s="66">
-        <f xml:space="preserve"> (B14 + C14 + D14 + E14 + F14) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I14" s="66">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="55">
-        <v>1</v>
-      </c>
-      <c r="C15" s="55">
-        <v>0</v>
-      </c>
-      <c r="D15" s="55">
-        <v>0</v>
-      </c>
-      <c r="E15" s="55">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55">
-        <v>0</v>
-      </c>
-      <c r="G15" s="66">
-        <f xml:space="preserve"> (B15*5) + (C15*4) + (D15*3) + (E15*2) + (F15*1)</f>
-        <v>5</v>
-      </c>
-      <c r="H15" s="66">
-        <f xml:space="preserve"> (B15 + C15 + D15 + E15 + F15) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I15" s="66">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="55">
-        <v>1</v>
-      </c>
-      <c r="C16" s="55">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55">
-        <v>0</v>
-      </c>
-      <c r="E16" s="55">
-        <v>0</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0</v>
-      </c>
-      <c r="G16" s="66">
-        <f xml:space="preserve"> (B16*5) + (C16*4) + (D16*3) + (E16*2) + (F16*1)</f>
-        <v>5</v>
-      </c>
-      <c r="H16" s="66">
-        <f xml:space="preserve"> (B16 + C16 + D16 + E16 + F16) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I16" s="66">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="55">
-        <v>1</v>
-      </c>
-      <c r="C17" s="55">
-        <v>0</v>
-      </c>
-      <c r="D17" s="55">
-        <v>0</v>
-      </c>
-      <c r="E17" s="55">
-        <v>0</v>
-      </c>
-      <c r="F17" s="55">
-        <v>0</v>
-      </c>
-      <c r="G17" s="66">
-        <f xml:space="preserve"> (B17*5) + (C17*4) + (D17*3) + (E17*2) + (F17*1)</f>
-        <v>5</v>
-      </c>
-      <c r="H17" s="66">
-        <f xml:space="preserve"> (B17 + C17 + D17 + E17 + F17) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I17" s="66">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="55">
-        <v>1</v>
-      </c>
-      <c r="C18" s="55">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55">
-        <v>0</v>
-      </c>
-      <c r="E18" s="55">
-        <v>0</v>
-      </c>
-      <c r="F18" s="55">
-        <v>0</v>
-      </c>
-      <c r="G18" s="66">
-        <f xml:space="preserve"> (B18*5) + (C18*4) + (D18*3) + (E18*2) + (F18*1)</f>
-        <v>5</v>
-      </c>
-      <c r="H18" s="66">
-        <f xml:space="preserve"> (B18 + C18 + D18 + E18 + F18) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I18" s="66">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="57">
-        <v>0</v>
-      </c>
-      <c r="C19" s="57">
-        <v>1</v>
-      </c>
-      <c r="D19" s="57">
-        <v>0</v>
-      </c>
-      <c r="E19" s="57">
-        <v>0</v>
-      </c>
-      <c r="F19" s="57">
-        <v>0</v>
-      </c>
-      <c r="G19" s="66">
-        <f xml:space="preserve"> (B19*5) + (C19*4) + (D19*3) + (E19*2) + (F19*1)</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="66">
-        <f xml:space="preserve"> (B19 + C19 + D19 + E19 + F19) * 5</f>
-        <v>5</v>
-      </c>
-      <c r="I19" s="66">
+      <c r="I19" s="21">
         <f xml:space="preserve"> (G19 / H19) * 100</f>
         <v>80</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="66">
-        <v>0</v>
-      </c>
-      <c r="C20" s="66">
+      <c r="B20" s="21">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
         <v>1</v>
       </c>
-      <c r="D20" s="66">
-        <v>0</v>
-      </c>
-      <c r="E20" s="66">
-        <v>0</v>
-      </c>
-      <c r="F20" s="66">
-        <v>0</v>
-      </c>
-      <c r="G20" s="66">
-        <f t="shared" ref="G20:G28" si="1" xml:space="preserve"> (B20*5) + (C20*4) + (D20*3) + (E20*2) + (F20*1)</f>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" ref="G20:G28" si="3" xml:space="preserve"> (B20*5) + (C20*4) + (D20*3) + (E20*2) + (F20*1)</f>
         <v>4</v>
       </c>
-      <c r="H20" s="66">
-        <f t="shared" ref="H20:H28" si="2" xml:space="preserve"> (B20 + C20 + D20 + E20 + F20) * 5</f>
+      <c r="H20" s="21">
+        <f t="shared" ref="H20:H28" si="4" xml:space="preserve"> (B20 + C20 + D20 + E20 + F20) * 5</f>
         <v>5</v>
       </c>
-      <c r="I20" s="66">
-        <f t="shared" ref="I20:I28" si="3" xml:space="preserve"> (G20 / H20) * 100</f>
+      <c r="I20" s="21">
+        <f t="shared" ref="I20:I28" si="5" xml:space="preserve"> (G20 / H20) * 100</f>
         <v>80</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="62">
-        <v>0</v>
-      </c>
-      <c r="C21" s="66">
+      <c r="B21" s="15">
+        <v>0</v>
+      </c>
+      <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="62">
-        <v>0</v>
-      </c>
-      <c r="E21" s="62">
-        <v>0</v>
-      </c>
-      <c r="F21" s="62">
-        <v>0</v>
-      </c>
-      <c r="G21" s="66">
-        <f t="shared" si="1"/>
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H21" s="66">
-        <f t="shared" si="2"/>
+      <c r="H21" s="21">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I21" s="66">
+      <c r="I21" s="21">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="66">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="21">
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="66">
-        <v>0</v>
-      </c>
-      <c r="C22" s="62">
-        <v>0</v>
-      </c>
-      <c r="D22" s="66">
-        <v>0</v>
-      </c>
-      <c r="E22" s="66">
+      <c r="J23" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="F22" s="66">
-        <v>0</v>
-      </c>
-      <c r="G22" s="66">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H22" s="66">
-        <f t="shared" si="2"/>
+      <c r="C24" s="15">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I22" s="66">
+      <c r="H24" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I24" s="21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="21">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="66">
-        <v>0</v>
-      </c>
-      <c r="C23" s="66">
+        <v>5</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I25" s="21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="21">
         <v>1</v>
       </c>
-      <c r="D23" s="66">
-        <v>0</v>
-      </c>
-      <c r="E23" s="66">
-        <v>0</v>
-      </c>
-      <c r="F23" s="66">
-        <v>0</v>
-      </c>
-      <c r="G23" s="66">
-        <f t="shared" si="1"/>
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H23" s="66">
-        <f t="shared" si="2"/>
+      <c r="H28" s="21">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I23" s="66">
-        <f t="shared" si="3"/>
+      <c r="I28" s="21">
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J23" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="66">
-        <v>1</v>
-      </c>
-      <c r="C24" s="55">
-        <v>0</v>
-      </c>
-      <c r="D24" s="55">
-        <v>0</v>
-      </c>
-      <c r="E24" s="55">
-        <v>0</v>
-      </c>
-      <c r="F24" s="55">
-        <v>0</v>
-      </c>
-      <c r="G24" s="66">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H24" s="66">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I24" s="66">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="66">
-        <v>1</v>
-      </c>
-      <c r="C25" s="55">
-        <v>0</v>
-      </c>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="55">
-        <v>0</v>
-      </c>
-      <c r="G25" s="66">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="66">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="66">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="66">
-        <v>1</v>
-      </c>
-      <c r="C26" s="55">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55">
-        <v>0</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0</v>
-      </c>
-      <c r="F26" s="55">
-        <v>0</v>
-      </c>
-      <c r="G26" s="66">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H26" s="66">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="66">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="66">
-        <v>1</v>
-      </c>
-      <c r="C27" s="55">
-        <v>0</v>
-      </c>
-      <c r="D27" s="55">
-        <v>0</v>
-      </c>
-      <c r="E27" s="55">
-        <v>0</v>
-      </c>
-      <c r="F27" s="55">
-        <v>0</v>
-      </c>
-      <c r="G27" s="66">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H27" s="66">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I27" s="66">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="66">
-        <v>0</v>
-      </c>
-      <c r="C28" s="66">
-        <v>1</v>
-      </c>
-      <c r="D28" s="55">
-        <v>0</v>
-      </c>
-      <c r="E28" s="55">
-        <v>0</v>
-      </c>
-      <c r="F28" s="55">
-        <v>0</v>
-      </c>
-      <c r="G28" s="66">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H28" s="66">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I28" s="66">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21">
         <f>SUM(B4:B28)</f>
         <v>14</v>
       </c>
-      <c r="C29" s="66">
-        <f t="shared" ref="C29:F29" si="4">SUM(C4:C28)</f>
+      <c r="C29" s="21">
+        <f t="shared" ref="C29:F29" si="6">SUM(C4:C28)</f>
         <v>8</v>
       </c>
-      <c r="D29" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="66">
-        <f t="shared" si="4"/>
+      <c r="D29" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="F29" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="66">
-        <f t="shared" ref="G29" si="5">SUM(G4:G28)</f>
+      <c r="F29" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" ref="G29" si="7">SUM(G4:G28)</f>
         <v>108</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="21">
         <f>SUM(H4:H28)</f>
         <v>125</v>
       </c>
-      <c r="I29" s="66">
+      <c r="I29" s="21">
         <f>(G29/H29)*100</f>
         <v>86.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
@@ -5445,24 +5464,11 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="J21:M21"/>
     <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAT GISBEGAL.xlsx
+++ b/UAT GISBEGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABC489-6F10-4042-B666-795B617BAF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B36035-BCBC-4D16-88EA-9E5037027DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,12 +316,6 @@
     <t>Pilih Jumlah Klaster atau Kategori yang lebih mudah Anda pahami</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Pertanyataan</t>
   </si>
   <si>
@@ -530,6 +524,12 @@
   </si>
   <si>
     <t>P25</t>
+  </si>
+  <si>
+    <t>Berhasil</t>
+  </si>
+  <si>
+    <t>Tidak Berhasil</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,6 +855,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -967,9 +973,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -985,7 +988,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,61 +1314,60 @@
   <dimension ref="A2:I100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A83" sqref="A2:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1373,42 +1381,42 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1477,13 +1485,13 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1596,13 +1604,13 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1681,7 +1689,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>8</v>
       </c>
@@ -1715,13 +1723,13 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1811,7 +1819,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>9</v>
       </c>
@@ -1822,7 +1830,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>10</v>
       </c>
@@ -1845,13 +1853,13 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -1975,13 +1983,13 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -1994,7 +2002,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -2050,13 +2058,13 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -2081,22 +2089,22 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -2198,13 +2206,13 @@
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -2213,124 +2221,124 @@
       <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="23">
+      <c r="A86" s="25">
         <v>2</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
       <c r="I86" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
+      <c r="A92" s="25">
         <v>3</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
     </row>
     <row r="93" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23">
+      <c r="A94" s="25">
         <v>4</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
     </row>
     <row r="96" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
+      <c r="A96" s="25">
         <v>5</v>
       </c>
-      <c r="B96" s="24" t="s">
+      <c r="B96" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
@@ -2402,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5AA470-3FE3-40EB-A7B3-B029ED87CB95}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:J67"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,27 +2423,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -2456,12 +2464,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2472,12 +2480,12 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2488,12 +2496,12 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2504,12 +2512,12 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2520,12 +2528,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2536,12 +2544,12 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2552,12 +2560,12 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2568,12 +2576,12 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2584,12 +2592,12 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -2600,12 +2608,12 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2616,12 +2624,12 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2632,12 +2640,12 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2648,12 +2656,12 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="B15" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2664,12 +2672,12 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
+      <c r="B16" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2680,12 +2688,12 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2696,12 +2704,12 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2709,202 +2717,202 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="36">
         <v>17</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="25">
         <v>18</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56">
+      <c r="A27" s="58">
         <v>19</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
+      <c r="B27" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>20</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="25">
         <v>21</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
@@ -2962,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A1F9A-91CC-43D1-87ED-EB159AD0E01C}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,27 +2984,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -3014,29 +3022,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="A3" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -3047,12 +3055,12 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -3063,12 +3071,12 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -3079,12 +3087,12 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -3095,12 +3103,12 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -3111,12 +3119,12 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -3127,12 +3135,12 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -3143,12 +3151,12 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -3159,12 +3167,12 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -3175,12 +3183,12 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -3188,29 +3196,29 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="A14" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -3221,12 +3229,12 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -3237,12 +3245,12 @@
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -3253,12 +3261,12 @@
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3269,12 +3277,12 @@
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -3285,12 +3293,12 @@
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -3301,12 +3309,12 @@
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -3317,12 +3325,12 @@
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="B22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -3333,12 +3341,12 @@
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="B23" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -3346,29 +3354,29 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="A24" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3379,12 +3387,12 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3395,12 +3403,12 @@
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3411,12 +3419,12 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3427,12 +3435,12 @@
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="B29" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3443,12 +3451,12 @@
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3456,209 +3464,210 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="25">
         <v>7</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="25">
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="25">
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
+      <c r="A37" s="25">
         <v>10</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="B37" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="25">
         <v>11</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
+      <c r="B39" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="A41" s="25">
         <v>12</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="25">
         <v>13</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A41:A42"/>
@@ -3673,7 +3682,6 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A24:J24"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B30:E30"/>
@@ -3682,9 +3690,8 @@
     <mergeCell ref="C33:J33"/>
     <mergeCell ref="C34:J34"/>
     <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A3:J3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B18:E18"/>
@@ -3710,6 +3717,7 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3733,54 +3741,54 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="62" t="s">
+      <c r="I2" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>136</v>
+      <c r="K2" s="41" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="15">
         <v>12</v>
@@ -3810,12 +3818,12 @@
         <v>85.517241379310349</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="15">
         <v>15</v>
@@ -3845,12 +3853,12 @@
         <v>87.586206896551715</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="15">
         <v>21</v>
@@ -3880,12 +3888,12 @@
         <v>93.793103448275858</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="15">
         <v>7</v>
@@ -3915,12 +3923,12 @@
         <v>78.620689655172413</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="15">
         <v>8</v>
@@ -3950,12 +3958,12 @@
         <v>82.068965517241381</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="15">
         <v>24</v>
@@ -3985,12 +3993,12 @@
         <v>95.862068965517238</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="15">
         <v>20</v>
@@ -4020,12 +4028,12 @@
         <v>93.793103448275858</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="15">
         <v>16</v>
@@ -4055,12 +4063,12 @@
         <v>91.034482758620697</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="15">
         <v>18</v>
@@ -4090,12 +4098,12 @@
         <v>91.724137931034477</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="15">
         <v>19</v>
@@ -4125,12 +4133,12 @@
         <v>90.344827586206904</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="15">
         <v>15</v>
@@ -4160,12 +4168,12 @@
         <v>90.344827586206904</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="15">
         <v>19</v>
@@ -4195,12 +4203,12 @@
         <v>91.724137931034477</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="15">
         <v>14</v>
@@ -4230,12 +4238,12 @@
         <v>87.586206896551715</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="15">
         <v>21</v>
@@ -4265,12 +4273,12 @@
         <v>93.793103448275858</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" s="15">
         <v>21</v>
@@ -4300,12 +4308,12 @@
         <v>93.103448275862064</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="17">
         <v>14</v>
@@ -4335,7 +4343,7 @@
         <v>88.275862068965523</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4390,7 +4398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED6D8C-022B-487D-AFD0-5E24BC7F85F9}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -4411,50 +4419,50 @@
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="62" t="s">
+      <c r="I2" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="62" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="15">
         <v>1</v>
@@ -4483,16 +4491,16 @@
         <f xml:space="preserve"> (G4 / H4) * 100</f>
         <v>100</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="J4" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
@@ -4521,16 +4529,16 @@
         <f xml:space="preserve"> (G5 / H5) * 100</f>
         <v>100</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="J5" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
@@ -4559,16 +4567,16 @@
         <f t="shared" ref="I6:I18" si="2" xml:space="preserve"> (G6 / H6) * 100</f>
         <v>100</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="J6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="15">
         <v>0</v>
@@ -4593,20 +4601,20 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="22">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="J7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="15">
         <v>0</v>
@@ -4631,20 +4639,20 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="22">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="J8" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="15">
         <v>1</v>
@@ -4673,16 +4681,16 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="J9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
@@ -4711,16 +4719,16 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="J10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="15">
         <v>0</v>
@@ -4749,16 +4757,16 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="J11" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="15">
         <v>0</v>
@@ -4787,16 +4795,16 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="J12" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
@@ -4825,16 +4833,16 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="J13" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
@@ -4863,16 +4871,16 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="J14" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
@@ -4901,16 +4909,16 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J15" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="J15" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
@@ -4939,16 +4947,16 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J16" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="J16" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
@@ -4977,16 +4985,16 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J17" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="J17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
@@ -5015,16 +5023,16 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="J18" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="17">
         <v>0</v>
@@ -5053,16 +5061,16 @@
         <f xml:space="preserve"> (G19 / H19) * 100</f>
         <v>80</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="J19" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" s="21">
         <v>0</v>
@@ -5091,16 +5099,16 @@
         <f t="shared" ref="I20:I28" si="5" xml:space="preserve"> (G20 / H20) * 100</f>
         <v>80</v>
       </c>
-      <c r="J20" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="J20" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" s="15">
         <v>0</v>
@@ -5129,16 +5137,16 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J21" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="J21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="21">
         <v>0</v>
@@ -5163,20 +5171,20 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="22">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="J22" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="J22" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" s="21">
         <v>0</v>
@@ -5205,16 +5213,16 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J23" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
+      <c r="J23" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="21">
         <v>1</v>
@@ -5243,16 +5251,16 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J24" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="J24" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" s="21">
         <v>1</v>
@@ -5281,16 +5289,16 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J25" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="J25" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B26" s="21">
         <v>1</v>
@@ -5319,16 +5327,16 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="J26" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="21">
         <v>1</v>
@@ -5357,16 +5365,16 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J27" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+      <c r="J27" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B28" s="21">
         <v>0</v>
@@ -5395,12 +5403,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J28" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="J28" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>

--- a/UAT GISBEGAL.xlsx
+++ b/UAT GISBEGAL.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B36035-BCBC-4D16-88EA-9E5037027DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EE852-F97D-4652-9CCC-9E91D95EC7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Umum" sheetId="2" r:id="rId2"/>
-    <sheet name="POLRES" sheetId="3" r:id="rId3"/>
-    <sheet name="Hasil" sheetId="4" r:id="rId4"/>
-    <sheet name="Hasil Polres" sheetId="5" r:id="rId5"/>
+    <sheet name="Black BOX" sheetId="8" r:id="rId2"/>
+    <sheet name="Umum" sheetId="2" r:id="rId3"/>
+    <sheet name="POLRES" sheetId="3" r:id="rId4"/>
+    <sheet name="Hasil" sheetId="4" r:id="rId5"/>
+    <sheet name="Hasil Polres" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="395">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -530,13 +531,697 @@
   </si>
   <si>
     <t>Tidak Berhasil</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Fitur Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Skenario Test</t>
+  </si>
+  <si>
+    <t>Valid / Invalid</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Login</t>
+  </si>
+  <si>
+    <t>Mengakses url gisbegal.test/login</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Login</t>
+  </si>
+  <si>
+    <t>Admin memasukkan akun berikut</t>
+  </si>
+  <si>
+    <t>Login berhasil dengan akun yang terdaftar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masuk ke akun dan tampil halaman dashboard yang sesuai dengan username akun </t>
+  </si>
+  <si>
+    <t>Login gagal dengan akun yang tidak terdaftar</t>
+  </si>
+  <si>
+    <t>Email : user@gisbegal.com</t>
+  </si>
+  <si>
+    <t>Password : 321</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Tetap dihalaman login dan muncul notifikasi email atau password salah</t>
+  </si>
+  <si>
+    <t>Login Gagal (email atau password) kosong</t>
+  </si>
+  <si>
+    <t>Admin menginputkan Email : user@gisbegal.com</t>
+  </si>
+  <si>
+    <t>Admin mongosongkan field password</t>
+  </si>
+  <si>
+    <t>Tetap dihalaman login dan muncul notifikasi harap isi field password</t>
+  </si>
+  <si>
+    <t>Fitur Dashboard</t>
+  </si>
+  <si>
+    <t>LG1</t>
+  </si>
+  <si>
+    <t>LG2</t>
+  </si>
+  <si>
+    <t>LG3</t>
+  </si>
+  <si>
+    <t>LG4</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>Akses dashboard setelah login</t>
+  </si>
+  <si>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>Akses dashboard tanpa login</t>
+  </si>
+  <si>
+    <t>Vaild</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin berhasil login </t>
+  </si>
+  <si>
+    <t>Kemudian admin mengakses url : gisbegal.test/dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin tidak melakukan login </t>
+  </si>
+  <si>
+    <t>Admin mengakses url : gisbegal.test/dashboard</t>
+  </si>
+  <si>
+    <t>Akses Dashboard Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Dashboard ketika admin berada di selain halaman dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitur Data Kecamatan </t>
+  </si>
+  <si>
+    <t>KC1</t>
+  </si>
+  <si>
+    <t>Akses Halaman Kecamatan Setelah Login</t>
+  </si>
+  <si>
+    <t>Kemudian admin mengakses url : gisbegal.test/dashboard/kecamatan</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Kecamatan</t>
+  </si>
+  <si>
+    <t>Admin mengakses url : gisbegal.test/dashboard/kecamatan</t>
+  </si>
+  <si>
+    <t>Akses Halaman Kecamatan tanpa login</t>
+  </si>
+  <si>
+    <t>Akses Halaman Kecamatan Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Kecamatan ketika admin berada di selain halaman Kecamatan</t>
+  </si>
+  <si>
+    <t>KC2</t>
+  </si>
+  <si>
+    <t>KC3</t>
+  </si>
+  <si>
+    <t>KC4</t>
+  </si>
+  <si>
+    <t>Dashboard langsung menampilkan data kecamatan</t>
+  </si>
+  <si>
+    <t>Menampilkan 24 data kecamatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitur Data Klaster </t>
+  </si>
+  <si>
+    <t>KL1</t>
+  </si>
+  <si>
+    <t>KL2</t>
+  </si>
+  <si>
+    <t>KL3</t>
+  </si>
+  <si>
+    <t>KL4</t>
+  </si>
+  <si>
+    <t>Akses Halaman Klaster Setelah Login</t>
+  </si>
+  <si>
+    <t>Kemudian admin mengakses url : gisbegal.test/dashboard/klaster</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Klaster</t>
+  </si>
+  <si>
+    <t>Akses Halaman Klaster tanpa login</t>
+  </si>
+  <si>
+    <t>Admin mengakses url : gisbegal.test/dashboard/klaster</t>
+  </si>
+  <si>
+    <t>Akses Halaman Klaster Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Klaster ketika admin berada di selain halaman Klaster</t>
+  </si>
+  <si>
+    <t>Dashboard langsung menampilkan data klaster</t>
+  </si>
+  <si>
+    <t>Menampilkan 3 data klaster</t>
+  </si>
+  <si>
+    <t>Fitur Curas</t>
+  </si>
+  <si>
+    <t>CS1</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>CS3</t>
+  </si>
+  <si>
+    <t>CS4</t>
+  </si>
+  <si>
+    <t>Akses Halaman Curas Setelah Login</t>
+  </si>
+  <si>
+    <t>Kemudian admin mengakses url : gisbegal.test/dashboard/curas</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Curas</t>
+  </si>
+  <si>
+    <t>Akses Halaman Curas tanpa login</t>
+  </si>
+  <si>
+    <t>Admin mengakses url : gisbegal.test/dashboard/curas</t>
+  </si>
+  <si>
+    <t>Akses Halaman Curas Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Curas ketika admin berada di selain halaman Curas</t>
+  </si>
+  <si>
+    <t>Menampilkan Data Curas</t>
+  </si>
+  <si>
+    <t>Dashboard langsung menampilkan data curas</t>
+  </si>
+  <si>
+    <t>Menampilkan jumlah kasus curas pada masing masing kecamatan</t>
+  </si>
+  <si>
+    <t>CS5</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Tambah Kasus Curas</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Tambah Curas</t>
+  </si>
+  <si>
+    <t>CS6</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Tambah Kasus Curas Melalui Sidebar</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Tambah Kasus Curas dengan tombol tambah curas</t>
+  </si>
+  <si>
+    <t>Klik Tombol tambah curas di halaman data curas</t>
+  </si>
+  <si>
+    <t>CS7</t>
+  </si>
+  <si>
+    <t>Menambahkan data kasus curas dengan input angka</t>
+  </si>
+  <si>
+    <t>Admin masuk ke halaman tambah curas</t>
+  </si>
+  <si>
+    <t>Admin memilih kecamatan</t>
+  </si>
+  <si>
+    <t>Admin menginputkan jumlah kasus curas yang ditambahkan (ex : 2)</t>
+  </si>
+  <si>
+    <t>Admin menekan tombol tambah data kasus curas</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Curas dan ada notifikasi data berhasil ditambahkan</t>
+  </si>
+  <si>
+    <t>Data Jumlah Curas di Kecamatan tersebut bertambah sesuai dengan jumlah kasus sebelumnya ditambah dengan jumlah kasus baru</t>
+  </si>
+  <si>
+    <t>CS8</t>
+  </si>
+  <si>
+    <t>Menambahkan data kasus curas dengan input selain angka</t>
+  </si>
+  <si>
+    <t>Pada field jumlah kasus curas, admin menginputkan selain angka</t>
+  </si>
+  <si>
+    <t>Tetap berada di halaman tambah data curas</t>
+  </si>
+  <si>
+    <t>Muncul Notifikasi : jumlah curas yang ditambahkan harus berupa angka</t>
+  </si>
+  <si>
+    <t>CS9</t>
+  </si>
+  <si>
+    <t>Menambahkan data kasus curas dengan inputan kosong</t>
+  </si>
+  <si>
+    <t>Pada field jumlah kasus curas, admin tidak memberi inputan</t>
+  </si>
+  <si>
+    <t>Muncul Notifikasi : field jumlah curas harus di isi</t>
+  </si>
+  <si>
+    <t>CS10</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Detail Kasus Curas</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Detail Kasus Curas</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Detai Kasus Curas dan menampilkan riwayat penambahan data kasus curas</t>
+  </si>
+  <si>
+    <t>CS11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membatalkan Penambahan data kasus curas </t>
+  </si>
+  <si>
+    <t>Admin masuk ke halaman detail kasus curas</t>
+  </si>
+  <si>
+    <t>Admin Menekan icon keranjang sampah pada tambahan data yang akan dihapus</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Curas dengan notifikasi : Berhasil menghapus data curas</t>
+  </si>
+  <si>
+    <t>Data Curas Pada Kecamatan tersebut berkurang sesuai dengan tambahan data yang dihapus</t>
+  </si>
+  <si>
+    <t>Fitur Curanmor</t>
+  </si>
+  <si>
+    <t>Akses Halaman Curanmor Setelah Login</t>
+  </si>
+  <si>
+    <t>Kemudian admin mengakses url : gisbegal.test/dashboard/curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Curanmor</t>
+  </si>
+  <si>
+    <t>Akses Halaman Curanmor tanpa login</t>
+  </si>
+  <si>
+    <t>Admin mengakses url : gisbegal.test/dashboard/curanmor</t>
+  </si>
+  <si>
+    <t>Akses Halaman Curanmor Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Curanmor ketika admin berada di selain halaman Curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan Data Curanmor</t>
+  </si>
+  <si>
+    <t>Dashboard langsung menampilkan data curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan jumlah kasus curanmor pada masing masing kecamatan</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Tambah Kasus Curanmor Melalui Sidebar</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Tambah Curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Tambah Kasus Curanmor</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Tambah Kasus Curanmor dengan tombol tambah Curanmor</t>
+  </si>
+  <si>
+    <t>Klik Tombol tambah curanmor di halaman data curanmor</t>
+  </si>
+  <si>
+    <t>Menambahkan data kasus curanmor dengan input angka</t>
+  </si>
+  <si>
+    <t>Admin masuk ke halaman tambah curanmor</t>
+  </si>
+  <si>
+    <t>Admin menginputkan jumlah kasus curanmor yang ditambahkan (ex : 2)</t>
+  </si>
+  <si>
+    <t>Admin menekan tombol tambah data kasus curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Curanmor dan ada notifikasi data berhasil ditambahkan</t>
+  </si>
+  <si>
+    <t>Data Jumlah Curanmor di Kecamatan tersebut bertambah sesuai dengan jumlah kasus sebelumnya ditambah dengan jumlah kasus baru</t>
+  </si>
+  <si>
+    <t>Menambahkan data kasus curanmor dengan input selain angka</t>
+  </si>
+  <si>
+    <t>Pada field jumlah kasus curanmor admin menginputkan selain angka</t>
+  </si>
+  <si>
+    <t>Tetap berada di halaman tambah data curanmor</t>
+  </si>
+  <si>
+    <t>Muncul Notifikasi : jumlah curanmor yang ditambahkan harus berupa angka</t>
+  </si>
+  <si>
+    <t>Menambahkan data kasus curanmor dengan inputan kosong</t>
+  </si>
+  <si>
+    <t>Pada field jumlah kasus curanmor admin tidak memberi inputan</t>
+  </si>
+  <si>
+    <t>Muncul Notifikasi : field jumlah curanmor harus di isi</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Detail Kasus Curanmor</t>
+  </si>
+  <si>
+    <t>Klik Menu Navigasi Detail Kasus Curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Detail Kasus Curanmor dan menampilkan riwayat penambahan data kasus curanmor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membatalkan Penambahan data kasus curanmor </t>
+  </si>
+  <si>
+    <t>Admin masuk ke halaman detail kasus curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Data Curanmor dengan notifikasi : Berhasil menghapus data curanmor</t>
+  </si>
+  <si>
+    <t>Data Curanmor Pada Kecamatan tersebut berkurang sesuai dengan tambahan data yang dihapus</t>
+  </si>
+  <si>
+    <t>Fitur Hasil Pemetaan</t>
+  </si>
+  <si>
+    <t>CM1</t>
+  </si>
+  <si>
+    <t>CM2</t>
+  </si>
+  <si>
+    <t>CM3</t>
+  </si>
+  <si>
+    <t>CM4</t>
+  </si>
+  <si>
+    <t>CM5</t>
+  </si>
+  <si>
+    <t>CM6</t>
+  </si>
+  <si>
+    <t>CM7</t>
+  </si>
+  <si>
+    <t>CM8</t>
+  </si>
+  <si>
+    <t>CM9</t>
+  </si>
+  <si>
+    <t>CM10</t>
+  </si>
+  <si>
+    <t>CM11</t>
+  </si>
+  <si>
+    <t>HP1</t>
+  </si>
+  <si>
+    <t>Akses Hasil Pemetaan Curas Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Hasil Pemetaan Curas</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t>Menampilkan Peta Kasus Curas</t>
+  </si>
+  <si>
+    <t>Masuk ke halaman hasil pemetaan kasus curas</t>
+  </si>
+  <si>
+    <t>Menampilkan peta kerawanan kasus curas dengan warna warna yang sesuai dengan data klaster</t>
+  </si>
+  <si>
+    <t>HP3</t>
+  </si>
+  <si>
+    <t>HP4</t>
+  </si>
+  <si>
+    <t>Akses Hasil Pemetaan Curanmor Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Hasil Pemetaan Curanmor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klik Menu Navigasi Hasil Pemetaan Curas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klik Menu Navigasi Hasil Pemetaan Curanmor </t>
+  </si>
+  <si>
+    <t>Menampilkan Peta Kasus Curanmor</t>
+  </si>
+  <si>
+    <t>Masuk ke halaman hasil pemetaan kasus curanmor</t>
+  </si>
+  <si>
+    <t>Menampilkan peta kerawanan kasus curanmor dengan warna warna yang sesuai dengan data klaster</t>
+  </si>
+  <si>
+    <t>Hasil Pemetaan yang ditampilkan sesuai dengan data pada tabel Curanmor</t>
+  </si>
+  <si>
+    <t>Hasil Pemetaan yang ditampilkan sesuai dengan data pada tabel Curas</t>
+  </si>
+  <si>
+    <t>Fitur Detail Perhitungan</t>
+  </si>
+  <si>
+    <t>Akses Detail Perhitungan Curas Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klik Menu Navigasi Detail Perhitungan Curas </t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Detail PErhitungan Curas</t>
+  </si>
+  <si>
+    <t>Akses Detail Perhitungan Curanmor Melalui Menu Navigasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klik Menu Navigasi Detail Perhitungan Curanmor </t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Detail Perhitungan Curanmor</t>
+  </si>
+  <si>
+    <t>Validasi Perhitungan Sistem</t>
+  </si>
+  <si>
+    <t>Membandingkan detail perhitungan k-means curas yang ada pada halaman Detail Perhitungan dengan perhitungan manual</t>
+  </si>
+  <si>
+    <t>Hasil dan Proses perhitungan K-Means kasus curas, sama antara sistem dan perhitungan manual</t>
+  </si>
+  <si>
+    <t>Perhitungan K-means Curas, Untuk K = 3 dengan centroid {0,1,3}</t>
+  </si>
+  <si>
+    <t>VK1</t>
+  </si>
+  <si>
+    <t>VK2</t>
+  </si>
+  <si>
+    <t>Perhitungan K-means Curanmor Untuk K = 3 dengan centroid {10, 20, 30}</t>
+  </si>
+  <si>
+    <t>Menjalankan perhitungan k-means curanmor untuk centroid {10, 20, 30} dengan mengakses url : gisbegal.test/kmeans-curanmor</t>
+  </si>
+  <si>
+    <t>Menjalankan perhitungan k-means curas untuk centroid {0,1,3} dengan mengakses url : gisbegal.test/kmeans-curas</t>
+  </si>
+  <si>
+    <t>Membandingkan detail perhitungan k-means curanmor yang ada pada halaman Detail Perhitungan dengan perhitungan manual</t>
+  </si>
+  <si>
+    <t>Hasil dan Proses perhitungan K-Means kasus curanmor sama antara sistem dan perhitungan manual</t>
+  </si>
+  <si>
+    <t>Fitur Logout</t>
+  </si>
+  <si>
+    <t>LO1</t>
+  </si>
+  <si>
+    <t>Logout dari Akun Admin</t>
+  </si>
+  <si>
+    <t>Menekan foto profil</t>
+  </si>
+  <si>
+    <t>Meneka tombol sign out</t>
+  </si>
+  <si>
+    <t>Di arahkan ke halaman Login</t>
+  </si>
+  <si>
+    <t>Halaman Utama</t>
+  </si>
+  <si>
+    <t>Mengakses Halaman Utama</t>
+  </si>
+  <si>
+    <t>Mengakses url : gisbegal.test</t>
+  </si>
+  <si>
+    <t>Menampilkan Halaman Utama</t>
+  </si>
+  <si>
+    <t>LP1</t>
+  </si>
+  <si>
+    <t>LP2</t>
+  </si>
+  <si>
+    <t>Berpindah Section</t>
+  </si>
+  <si>
+    <t>Menekan menu navigasi pada navbar</t>
+  </si>
+  <si>
+    <t>Menampilkan section sesuai dengan menu yang dipilih, namun pada halaman yang sama</t>
+  </si>
+  <si>
+    <t>LP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menampilkan Hasil Pemetaan Curas </t>
+  </si>
+  <si>
+    <t>Menekan tombol curas pada bagian atas peta</t>
+  </si>
+  <si>
+    <t>Menampilkan Hasil Pemetaan Kasus Curas dan hasil pemetaan sesuai dengan data di tabel curas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menampilkan Hasil Pemetaan Curanmor  </t>
+  </si>
+  <si>
+    <t>Menekan tombol curanmor pada bagian atas peta</t>
+  </si>
+  <si>
+    <t>Menampilkan Hasil Pemetaan Kasus Curanmot dan hasil pemetaan sesuai dengan data di tabel curanmors</t>
+  </si>
+  <si>
+    <t>LP4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +1267,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -798,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,14 +1554,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -878,25 +1574,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -964,6 +1645,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,6 +1659,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -988,13 +1693,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B60E703-96E1-4978-B621-1768E89B3096}">
   <dimension ref="A2:I100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A83" sqref="A2:E83"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,21 +2061,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="23" t="s">
         <v>165</v>
       </c>
@@ -1352,22 +2087,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1384,39 +2119,39 @@
       <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1485,13 +2220,13 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1604,13 +2339,13 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1723,13 +2458,13 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1853,13 +2588,13 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -1983,13 +2718,13 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2058,13 +2793,13 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -2089,22 +2824,22 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -2206,13 +2941,13 @@
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -2221,9 +2956,9 @@
       <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
@@ -2232,11 +2967,11 @@
       <c r="B86" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
       <c r="I86" s="7" t="s">
         <v>91</v>
       </c>
@@ -2246,99 +2981,99 @@
       <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="25"/>
       <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="25"/>
       <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="25"/>
       <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="25"/>
       <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <v>3</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
     </row>
     <row r="93" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>4</v>
       </c>
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
     </row>
     <row r="95" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
     </row>
     <row r="96" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
         <v>5</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
     </row>
     <row r="97" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
@@ -2363,25 +3098,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="A96:A97"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="B92:E92"/>
@@ -2394,12 +3116,25 @@
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2407,6 +3142,1912 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B93963-36CB-405F-A01B-190B1E5F585B}">
+  <dimension ref="A2:H144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="79" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" style="20" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="79" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="82"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="73"/>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="73"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="73"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="73"/>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="76"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+    </row>
+    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="D57" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="80" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="80" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="77" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="72"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="72"/>
+      <c r="E60" s="77"/>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="72"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="72"/>
+      <c r="E61" s="77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="77"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="77" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="72"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" s="72"/>
+      <c r="E64" s="77"/>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="72"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="72"/>
+      <c r="E65" s="77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="72"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="72"/>
+      <c r="E66" s="77"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="77" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="72"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="72"/>
+      <c r="E68" s="77"/>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="72"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="73" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" s="72"/>
+      <c r="E69" s="77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="72"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D70" s="72"/>
+      <c r="E70" s="77"/>
+    </row>
+    <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B71" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="80" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="B72" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="C72" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="72"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" s="72"/>
+      <c r="E73" s="81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="81"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="81"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="81"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="81"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="74"/>
+      <c r="G79" s="74"/>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="76"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="76"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="75"/>
+    </row>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="76"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="D82" s="76"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+    </row>
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="B83" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="80" t="s">
+        <v>289</v>
+      </c>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+    </row>
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="B84" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+    </row>
+    <row r="85" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="80" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="D87" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="77" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="72"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="72"/>
+      <c r="E88" s="77"/>
+    </row>
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="72"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" s="72"/>
+      <c r="E89" s="77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="72"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" s="72"/>
+      <c r="E90" s="77"/>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="D91" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="72"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="72"/>
+      <c r="E92" s="77"/>
+    </row>
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="72"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="72"/>
+      <c r="E93" s="77" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="72"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="D94" s="72"/>
+      <c r="E94" s="77"/>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="B95" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="C95" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" s="77" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="72"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="72"/>
+      <c r="E96" s="77"/>
+    </row>
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="72"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="72"/>
+      <c r="E97" s="77" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="72"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="72"/>
+      <c r="E98" s="77"/>
+    </row>
+    <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="80" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C100" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="D100" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="72"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="72"/>
+      <c r="E101" s="81" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" s="83"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="83"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="20"/>
+      <c r="C105" s="24"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="B107" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="D107" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E107" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+    </row>
+    <row r="108" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="B108" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C108" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="D108" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E108" s="80" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="72"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="80" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="C110" s="81" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110" s="80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="C111" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="D111" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" s="80" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="72"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="72"/>
+      <c r="E112" s="80" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="83"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="20"/>
+      <c r="C116" s="24"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="78" t="s">
+        <v>354</v>
+      </c>
+      <c r="B118" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="C118" s="81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D118" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E118" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="F118" s="73"/>
+      <c r="G118" s="73"/>
+    </row>
+    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="78" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="D119" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E119" s="80" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" s="83"/>
+      <c r="C122" s="83"/>
+      <c r="D122" s="83"/>
+      <c r="E122" s="83"/>
+      <c r="F122" s="83"/>
+      <c r="G122" s="83"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="20"/>
+      <c r="C123" s="24"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="B125" s="77" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="81" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E125" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="F125" s="73"/>
+      <c r="G125" s="73"/>
+    </row>
+    <row r="126" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" s="76"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="D126" s="76"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="73"/>
+      <c r="G126" s="73"/>
+    </row>
+    <row r="127" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="76" t="s">
+        <v>366</v>
+      </c>
+      <c r="B127" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="C127" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="D127" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E127" s="77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A128" s="76"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="D128" s="76"/>
+      <c r="E128" s="77"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" s="83"/>
+      <c r="C131" s="83"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="83"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G133" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B134" s="77" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E134" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="F134" s="74"/>
+      <c r="G134" s="74"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="72"/>
+      <c r="B135" s="77"/>
+      <c r="C135" t="s">
+        <v>376</v>
+      </c>
+      <c r="D135" s="76"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="74"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="B138" s="83"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="83"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F140" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B141" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D141" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E141" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="F141" s="73"/>
+      <c r="G141" s="73"/>
+    </row>
+    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B142" s="80" t="s">
+        <v>384</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="80" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B143" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>389</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" s="80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B144" s="80" t="s">
+        <v>391</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="80" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="141">
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5AA470-3FE3-40EB-A7B3-B029ED87CB95}">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -2464,12 +5105,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -2480,12 +5121,12 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -2496,12 +5137,12 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2512,12 +5153,12 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2528,12 +5169,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2544,12 +5185,12 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2560,12 +5201,12 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -2576,12 +5217,12 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -2592,12 +5233,12 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -2608,12 +5249,12 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2624,12 +5265,12 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -2640,12 +5281,12 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2656,12 +5297,12 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2672,12 +5313,12 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2688,12 +5329,12 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2704,12 +5345,12 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2717,202 +5358,202 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="55">
         <v>17</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="25"/>
       <c r="B23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>18</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="54">
         <v>19</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>20</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>21</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
@@ -2922,6 +5563,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F19:J32"/>
@@ -2938,39 +5601,17 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A1F9A-91CC-43D1-87ED-EB159AD0E01C}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E30"/>
     </sheetView>
   </sheetViews>
@@ -3022,13 +5663,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -3039,12 +5680,12 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -3055,12 +5696,12 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -3071,12 +5712,12 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -3087,12 +5728,12 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -3103,12 +5744,12 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -3119,12 +5760,12 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -3135,12 +5776,12 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -3151,12 +5792,12 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -3167,12 +5808,12 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -3183,12 +5824,12 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -3196,13 +5837,13 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -3213,12 +5854,12 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -3229,12 +5870,12 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -3245,12 +5886,12 @@
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -3261,12 +5902,12 @@
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3277,12 +5918,12 @@
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -3293,12 +5934,12 @@
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -3309,12 +5950,12 @@
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -3325,12 +5966,12 @@
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -3341,12 +5982,12 @@
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -3354,13 +5995,13 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -3371,12 +6012,12 @@
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -3387,12 +6028,12 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3403,12 +6044,12 @@
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3419,12 +6060,12 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3435,12 +6076,12 @@
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3451,12 +6092,12 @@
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3467,17 +6108,17 @@
       <c r="A31" s="25">
         <v>7</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
@@ -3557,116 +6198,151 @@
       <c r="A37" s="25">
         <v>10</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>11</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>12</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>13</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A43:A44"/>
@@ -3683,48 +6359,13 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9101460F-3A1E-48F8-BAA2-713B7683A3CD}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -3741,31 +6382,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="63" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="37" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
@@ -3781,10 +6422,10 @@
       <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="K3" s="41"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -4394,7 +7035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED6D8C-022B-487D-AFD0-5E24BC7F85F9}">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -4419,28 +7060,28 @@
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="63" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="67" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
@@ -4456,9 +7097,9 @@
       <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -4491,12 +7132,12 @@
         <f xml:space="preserve"> (G4 / H4) * 100</f>
         <v>100</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -4529,12 +7170,12 @@
         <f xml:space="preserve"> (G5 / H5) * 100</f>
         <v>100</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -4567,12 +7208,12 @@
         <f t="shared" ref="I6:I18" si="2" xml:space="preserve"> (G6 / H6) * 100</f>
         <v>100</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -4605,12 +7246,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -4643,12 +7284,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -4681,12 +7322,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -4719,12 +7360,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -4757,12 +7398,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -4795,12 +7436,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -4833,12 +7474,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -4871,12 +7512,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -4909,12 +7550,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -4947,12 +7588,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -4985,12 +7626,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -5023,12 +7664,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -5061,12 +7702,12 @@
         <f xml:space="preserve"> (G19 / H19) * 100</f>
         <v>80</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -5099,12 +7740,12 @@
         <f t="shared" ref="I20:I28" si="5" xml:space="preserve"> (G20 / H20) * 100</f>
         <v>80</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -5137,12 +7778,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
@@ -5175,12 +7816,12 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -5213,12 +7854,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -5251,12 +7892,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -5289,12 +7930,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -5327,12 +7968,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -5365,12 +8006,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -5403,12 +8044,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -5447,12 +8088,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="J6:M6"/>
@@ -5465,18 +8112,12 @@
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAT GISBEGAL.xlsx
+++ b/UAT GISBEGAL.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EE852-F97D-4652-9CCC-9E91D95EC7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A2D80-26C0-49BF-83DB-19095BAA41B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Black BOX" sheetId="8" r:id="rId2"/>
-    <sheet name="Umum" sheetId="2" r:id="rId3"/>
-    <sheet name="POLRES" sheetId="3" r:id="rId4"/>
-    <sheet name="Hasil" sheetId="4" r:id="rId5"/>
-    <sheet name="Hasil Polres" sheetId="5" r:id="rId6"/>
+    <sheet name="Hasil Black Box" sheetId="9" r:id="rId3"/>
+    <sheet name="Umum" sheetId="2" r:id="rId4"/>
+    <sheet name="POLRES" sheetId="3" r:id="rId5"/>
+    <sheet name="Hasil" sheetId="4" r:id="rId6"/>
+    <sheet name="Hasil Polres" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="404">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -1215,6 +1216,33 @@
   </si>
   <si>
     <t>LP4</t>
+  </si>
+  <si>
+    <t>ID Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasil </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fitur Data Kecamatan</t>
+  </si>
+  <si>
+    <t>Fitur Data Klaster</t>
+  </si>
+  <si>
+    <t>Fitur CRUD Data Curas</t>
+  </si>
+  <si>
+    <t>Fitur CRUD Data Curanmor</t>
+  </si>
+  <si>
+    <t>Validasi Perhitungan K-Means</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Halaman Utama</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1557,14 +1585,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1574,10 +1623,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1645,12 +1724,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1659,15 +1732,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1692,45 +1756,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2061,21 +2086,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="23" t="s">
         <v>165</v>
       </c>
@@ -2087,22 +2112,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2116,42 +2141,42 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="33">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2220,13 +2245,13 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2339,13 +2364,13 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -2458,13 +2483,13 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -2588,13 +2613,13 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -2718,13 +2743,13 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2793,13 +2818,13 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -2824,22 +2849,22 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -2941,13 +2966,13 @@
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -2956,124 +2981,124 @@
       <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
+      <c r="A86" s="33">
         <v>2</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
       <c r="I86" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="25">
+      <c r="A92" s="33">
         <v>3</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
     </row>
     <row r="93" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="25">
+      <c r="A94" s="33">
         <v>4</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
     </row>
     <row r="95" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
     </row>
     <row r="96" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25">
+      <c r="A96" s="33">
         <v>5</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
     </row>
     <row r="97" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
@@ -3098,12 +3123,25 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="B92:E92"/>
@@ -3116,25 +3154,12 @@
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="A86:A91"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="A96:A97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3145,30 +3170,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B93963-36CB-405F-A01B-190B1E5F585B}">
   <dimension ref="A2:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="30" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" style="20" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="30" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -3197,158 +3222,158 @@
       <c r="A5" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="29" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="71" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="30" t="s">
         <v>167</v>
       </c>
       <c r="C18" t="s">
@@ -3357,7 +3382,7 @@
       <c r="D18" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="30" t="s">
         <v>172</v>
       </c>
       <c r="F18" t="s">
@@ -3368,100 +3393,100 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="73" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="73" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="30" t="s">
         <v>167</v>
       </c>
       <c r="C28" t="s">
@@ -3470,7 +3495,7 @@
       <c r="D28" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="30" t="s">
         <v>172</v>
       </c>
       <c r="F28" t="s">
@@ -3481,125 +3506,125 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="73"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="73" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="73"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="73"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="73" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="73"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="30" t="s">
         <v>167</v>
       </c>
       <c r="C39" t="s">
@@ -3608,7 +3633,7 @@
       <c r="D39" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="30" t="s">
         <v>172</v>
       </c>
       <c r="F39" t="s">
@@ -3619,113 +3644,113 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="73" t="s">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
+      <c r="A42" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="73" t="s">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="C44" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="E44" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="C45" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
@@ -3751,342 +3776,342 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="76" t="s">
+      <c r="A51" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E51" s="77" t="s">
+      <c r="E51" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="76"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="73" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="76" t="s">
+      <c r="D53" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="77" t="s">
+      <c r="E53" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
     </row>
     <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="73" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="80" t="s">
+      <c r="E55" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="78" t="s">
+      <c r="A56" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="80" t="s">
+      <c r="C56" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E56" s="80" t="s">
+      <c r="E56" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D57" s="78" t="s">
+      <c r="D57" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="80" t="s">
+      <c r="E57" s="29" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="80" t="s">
+      <c r="C58" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="D58" s="78" t="s">
+      <c r="D58" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="80" t="s">
+      <c r="E58" s="29" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="73" t="s">
+      <c r="C59" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="77" t="s">
+      <c r="E59" s="41" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="73" t="s">
+      <c r="A60" s="43"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D60" s="72"/>
-      <c r="E60" s="77"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="73" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="72"/>
-      <c r="E61" s="77" t="s">
+      <c r="D61" s="43"/>
+      <c r="E61" s="41" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="73" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="77"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="73" t="s">
+      <c r="C63" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D63" s="72" t="s">
+      <c r="D63" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="77" t="s">
+      <c r="E63" s="41" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="73" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="77"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="73" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="72"/>
-      <c r="E65" s="77" t="s">
+      <c r="D65" s="43"/>
+      <c r="E65" s="41" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="73" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="72"/>
-      <c r="E66" s="77"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="72" t="s">
+      <c r="D67" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E67" s="77" t="s">
+      <c r="E67" s="41" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="73" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="72"/>
-      <c r="E68" s="77"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="41"/>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="73" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="72"/>
-      <c r="E69" s="77" t="s">
+      <c r="D69" s="43"/>
+      <c r="E69" s="41" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="73" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="72"/>
-      <c r="E70" s="77"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="29" t="s">
         <v>278</v>
       </c>
       <c r="D71" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E71" s="80" t="s">
+      <c r="E71" s="29" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="C72" s="73" t="s">
+      <c r="C72" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="81" t="s">
+      <c r="E72" s="31" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="73" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D73" s="72"/>
-      <c r="E73" s="81" t="s">
+      <c r="D73" s="43"/>
+      <c r="E73" s="31" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="81"/>
-      <c r="C74" s="73"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="81"/>
+      <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="81"/>
-      <c r="C75" s="73"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="81"/>
+      <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="B76" s="83"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
@@ -4112,331 +4137,331 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="73" t="s">
+      <c r="C79" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="76" t="s">
+      <c r="D79" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="77" t="s">
+      <c r="E79" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
     </row>
     <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="76"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="73" t="s">
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="76" t="s">
+      <c r="D81" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="77" t="s">
+      <c r="E81" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="F81" s="74"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="75"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="27"/>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="76"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="73" t="s">
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
     </row>
     <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="78" t="s">
+      <c r="A83" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="D83" s="78" t="s">
+      <c r="D83" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="80" t="s">
+      <c r="E83" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="78" t="s">
+      <c r="A84" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="B84" s="80" t="s">
+      <c r="B84" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E84" s="80" t="s">
+      <c r="E84" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="80" t="s">
+      <c r="C85" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="78" t="s">
+      <c r="D85" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E85" s="80" t="s">
+      <c r="E85" s="29" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A86" s="78" t="s">
+      <c r="A86" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="B86" s="80" t="s">
+      <c r="B86" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="80" t="s">
+      <c r="C86" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="D86" s="78" t="s">
+      <c r="D86" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E86" s="80" t="s">
+      <c r="E86" s="29" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="B87" s="77" t="s">
+      <c r="B87" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E87" s="77" t="s">
+      <c r="E87" s="41" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="72"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="73" t="s">
+      <c r="A88" s="43"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="72"/>
-      <c r="E88" s="77"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="41"/>
     </row>
     <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="72"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="73" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="77" t="s">
+      <c r="D89" s="43"/>
+      <c r="E89" s="41" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="72"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="73" t="s">
+      <c r="A90" s="43"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D90" s="72"/>
-      <c r="E90" s="77"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="41"/>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="72" t="s">
+      <c r="A91" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="C91" s="73" t="s">
+      <c r="C91" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D91" s="72" t="s">
+      <c r="D91" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="77" t="s">
+      <c r="E91" s="41" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="72"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="73" t="s">
+      <c r="A92" s="43"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D92" s="72"/>
-      <c r="E92" s="77"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="41"/>
     </row>
     <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="72"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="73" t="s">
+      <c r="A93" s="43"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="77" t="s">
+      <c r="D93" s="43"/>
+      <c r="E93" s="41" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="72"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="73" t="s">
+      <c r="A94" s="43"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D94" s="72"/>
-      <c r="E94" s="77"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="41"/>
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="72" t="s">
+      <c r="A95" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="C95" s="73" t="s">
+      <c r="C95" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="72" t="s">
+      <c r="D95" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E95" s="77" t="s">
+      <c r="E95" s="41" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="72"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="73" t="s">
+      <c r="A96" s="43"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D96" s="72"/>
-      <c r="E96" s="77"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="41"/>
     </row>
     <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="72"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="73" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D97" s="72"/>
-      <c r="E97" s="77" t="s">
+      <c r="D97" s="43"/>
+      <c r="E97" s="41" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="72"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="73" t="s">
+      <c r="A98" s="43"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D98" s="72"/>
-      <c r="E98" s="77"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="41"/>
     </row>
     <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="B99" s="79" t="s">
+      <c r="B99" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="29" t="s">
         <v>316</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="80" t="s">
+      <c r="E99" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="72" t="s">
+      <c r="A100" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="77" t="s">
+      <c r="B100" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="73" t="s">
+      <c r="C100" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="D100" s="72" t="s">
+      <c r="D100" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E100" s="81" t="s">
+      <c r="E100" s="31" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="72"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="73" t="s">
+      <c r="A101" s="43"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="D101" s="72"/>
-      <c r="E101" s="81" t="s">
+      <c r="D101" s="43"/>
+      <c r="E101" s="31" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="83" t="s">
+      <c r="A104" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="83"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B105" s="20"/>
@@ -4469,103 +4494,103 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="78" t="s">
+      <c r="A107" s="28" t="s">
         <v>334</v>
       </c>
-      <c r="B107" s="80" t="s">
+      <c r="B107" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C107" s="81" t="s">
+      <c r="C107" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="D107" s="78" t="s">
+      <c r="D107" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E107" s="80" t="s">
+      <c r="E107" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="F107" s="73"/>
-      <c r="G107" s="73"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="72" t="s">
+      <c r="A108" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="77" t="s">
+      <c r="C108" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="D108" s="72" t="s">
+      <c r="D108" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E108" s="80" t="s">
+      <c r="E108" s="29" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="72"/>
-      <c r="B109" s="77"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="80" t="s">
+      <c r="A109" s="43"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="29" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="78" t="s">
+      <c r="A110" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="B110" s="80" t="s">
+      <c r="B110" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="C110" s="81" t="s">
+      <c r="C110" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="D110" s="78" t="s">
+      <c r="D110" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E110" s="80" t="s">
+      <c r="E110" s="29" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="72" t="s">
+      <c r="A111" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="77" t="s">
+      <c r="C111" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="72" t="s">
+      <c r="D111" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E111" s="80" t="s">
+      <c r="E111" s="29" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="72"/>
-      <c r="B112" s="77"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="80" t="s">
+      <c r="A112" s="43"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="29" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="83" t="s">
+      <c r="A115" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="B115" s="83"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B116" s="20"/>
@@ -4598,51 +4623,51 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="78" t="s">
+      <c r="A118" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="B118" s="80" t="s">
+      <c r="B118" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="C118" s="81" t="s">
+      <c r="C118" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="D118" s="78" t="s">
+      <c r="D118" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E118" s="80" t="s">
+      <c r="E118" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="F118" s="73"/>
-      <c r="G118" s="73"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="78" t="s">
+      <c r="A119" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="B119" s="80" t="s">
+      <c r="B119" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="C119" s="81" t="s">
+      <c r="C119" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="D119" s="78" t="s">
+      <c r="D119" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E119" s="80" t="s">
+      <c r="E119" s="29" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="B122" s="83"/>
-      <c r="C122" s="83"/>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="83"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B123" s="20"/>
@@ -4675,71 +4700,71 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="76" t="s">
+      <c r="A125" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="77" t="s">
+      <c r="B125" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="C125" s="81" t="s">
+      <c r="C125" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="D125" s="76" t="s">
+      <c r="D125" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E125" s="77" t="s">
+      <c r="E125" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="F125" s="73"/>
-      <c r="G125" s="73"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="26"/>
     </row>
     <row r="126" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A126" s="76"/>
-      <c r="B126" s="77"/>
-      <c r="C126" s="81" t="s">
+      <c r="A126" s="40"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="D126" s="76"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="73"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
     </row>
     <row r="127" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="76" t="s">
+      <c r="A127" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="B127" s="77" t="s">
+      <c r="B127" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="C127" s="81" t="s">
+      <c r="C127" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="D127" s="76" t="s">
+      <c r="D127" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E127" s="77" t="s">
+      <c r="E127" s="41" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128" s="76"/>
-      <c r="B128" s="77"/>
-      <c r="C128" s="81" t="s">
+      <c r="A128" s="40"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D128" s="76"/>
-      <c r="E128" s="77"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="41"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="83" t="s">
+      <c r="A131" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="B131" s="83"/>
-      <c r="C131" s="83"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="83"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="20" t="s">
@@ -4765,45 +4790,45 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="72" t="s">
+      <c r="A134" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B134" s="77" t="s">
+      <c r="B134" s="41" t="s">
         <v>374</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D134" s="76" t="s">
+      <c r="D134" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="E134" s="77" t="s">
+      <c r="E134" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="F134" s="74"/>
-      <c r="G134" s="74"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="72"/>
-      <c r="B135" s="77"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="41"/>
       <c r="C135" t="s">
         <v>376</v>
       </c>
-      <c r="D135" s="76"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="83" t="s">
+      <c r="A138" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="83"/>
-      <c r="C138" s="83"/>
-      <c r="D138" s="83"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="83"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="20" t="s">
@@ -4832,35 +4857,35 @@
       <c r="A141" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B141" s="80" t="s">
+      <c r="B141" s="29" t="s">
         <v>379</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D141" s="78" t="s">
+      <c r="D141" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E141" s="80" t="s">
+      <c r="E141" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
     </row>
     <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B142" s="80" t="s">
+      <c r="B142" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="29" t="s">
         <v>385</v>
       </c>
       <c r="D142" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E142" s="80" t="s">
+      <c r="E142" s="29" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4868,16 +4893,16 @@
       <c r="A143" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B143" s="80" t="s">
+      <c r="B143" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="C143" s="80" t="s">
+      <c r="C143" s="29" t="s">
         <v>389</v>
       </c>
       <c r="D143" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E143" s="80" t="s">
+      <c r="E143" s="29" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4885,119 +4910,40 @@
       <c r="A144" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="B144" s="80" t="s">
+      <c r="B144" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="C144" s="80" t="s">
+      <c r="C144" s="29" t="s">
         <v>392</v>
       </c>
       <c r="D144" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E144" s="80" t="s">
+      <c r="E144" s="29" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="D42:D43"/>
@@ -5022,25 +4968,104 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A131:G131"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5048,6 +5073,678 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B363A2F-369B-403F-9836-935BE19CD1E5}">
+  <dimension ref="A3:C64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="16.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5AA470-3FE3-40EB-A7B3-B029ED87CB95}">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -5064,27 +5761,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -5105,12 +5802,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5121,12 +5818,12 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -5137,12 +5834,12 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -5153,12 +5850,12 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -5169,12 +5866,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -5185,12 +5882,12 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5201,12 +5898,12 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5217,12 +5914,12 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -5233,12 +5930,12 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -5249,12 +5946,12 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -5265,12 +5962,12 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -5281,12 +5978,12 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -5297,12 +5994,12 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -5313,12 +6010,12 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -5329,12 +6026,12 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -5345,12 +6042,12 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -5358,202 +6055,202 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="55">
+      <c r="A19" s="49">
         <v>17</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="33">
         <v>18</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
+      <c r="A27" s="71">
         <v>19</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="33">
         <v>20</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="33">
         <v>21</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
@@ -5563,28 +6260,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F19:J32"/>
@@ -5601,13 +6276,35 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220A1F9A-91CC-43D1-87ED-EB159AD0E01C}">
   <dimension ref="A1:J44"/>
   <sheetViews>
@@ -5625,27 +6322,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -5663,13 +6360,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5680,12 +6377,12 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -5696,12 +6393,12 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -5712,12 +6409,12 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -5728,12 +6425,12 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -5744,12 +6441,12 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -5760,12 +6457,12 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -5776,12 +6473,12 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -5792,12 +6489,12 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5808,12 +6505,12 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5824,12 +6521,12 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -5837,13 +6534,13 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -5854,12 +6551,12 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -5870,12 +6567,12 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -5886,12 +6583,12 @@
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -5902,12 +6599,12 @@
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -5918,12 +6615,12 @@
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -5934,12 +6631,12 @@
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -5950,12 +6647,12 @@
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -5966,12 +6663,12 @@
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -5982,12 +6679,12 @@
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -5995,13 +6692,13 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -6012,12 +6709,12 @@
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -6028,12 +6725,12 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -6044,12 +6741,12 @@
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -6060,12 +6757,12 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -6076,12 +6773,12 @@
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -6092,12 +6789,12 @@
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -6105,223 +6802,229 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="33">
         <v>7</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="33">
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="33">
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="33">
         <v>10</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="33">
         <v>11</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="33">
         <v>12</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
+      <c r="A43" s="33">
         <v>13</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
     <mergeCell ref="C34:J34"/>
     <mergeCell ref="C35:J35"/>
     <mergeCell ref="A24:E24"/>
@@ -6338,34 +7041,28 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9101460F-3A1E-48F8-BAA2-713B7683A3CD}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -6382,31 +7079,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="67" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="54" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
@@ -6422,10 +7119,10 @@
       <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="K3" s="37"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -7035,7 +7732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED6D8C-022B-487D-AFD0-5E24BC7F85F9}">
   <dimension ref="A1:M29"/>
   <sheetViews>
@@ -7060,28 +7757,28 @@
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="67" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="79" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
@@ -7097,9 +7794,9 @@
       <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -7132,12 +7829,12 @@
         <f xml:space="preserve"> (G4 / H4) * 100</f>
         <v>100</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -7170,12 +7867,12 @@
         <f xml:space="preserve"> (G5 / H5) * 100</f>
         <v>100</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -7208,12 +7905,12 @@
         <f t="shared" ref="I6:I18" si="2" xml:space="preserve"> (G6 / H6) * 100</f>
         <v>100</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -7246,12 +7943,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -7284,12 +7981,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -7322,12 +8019,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -7360,12 +8057,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -7398,12 +8095,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -7436,12 +8133,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -7474,12 +8171,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -7512,12 +8209,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -7550,12 +8247,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -7588,12 +8285,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -7626,12 +8323,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -7664,12 +8361,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -7702,12 +8399,12 @@
         <f xml:space="preserve"> (G19 / H19) * 100</f>
         <v>80</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -7740,12 +8437,12 @@
         <f t="shared" ref="I20:I28" si="5" xml:space="preserve"> (G20 / H20) * 100</f>
         <v>80</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -7778,12 +8475,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
@@ -7816,12 +8513,12 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -7854,12 +8551,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J23" s="66" t="s">
+      <c r="J23" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -7892,12 +8589,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -7930,12 +8627,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -7968,12 +8665,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -8006,12 +8703,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -8044,12 +8741,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J28" s="26" t="s">
+      <c r="J28" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -8088,6 +8785,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
@@ -8100,24 +8815,6 @@
     <mergeCell ref="J25:M25"/>
     <mergeCell ref="J26:M26"/>
     <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UAT GISBEGAL.xlsx
+++ b/UAT GISBEGAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CADANGAN SKRIPSI GIT HUB\DATA SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A2D80-26C0-49BF-83DB-19095BAA41B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF45C45-70DE-4148-96CD-5B960E88C445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{335E6562-EAC7-450D-8F68-8E81A96047F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,14 +1295,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1519,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1589,31 +1581,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1623,39 +1603,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1724,6 +1680,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1732,6 +1694,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1756,6 +1727,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,21 +2090,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="23" t="s">
         <v>165</v>
       </c>
@@ -2112,22 +2116,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2141,42 +2145,42 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2245,13 +2249,13 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2364,13 +2368,13 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -2483,13 +2487,13 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -2613,13 +2617,13 @@
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -2743,13 +2747,13 @@
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2818,13 +2822,13 @@
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
     </row>
     <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -2849,22 +2853,22 @@
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
@@ -2966,13 +2970,13 @@
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
     </row>
     <row r="85" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -2981,124 +2985,124 @@
       <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
     </row>
     <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="33">
+      <c r="A86" s="28">
         <v>2</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
       <c r="I86" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
     </row>
     <row r="89" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="33">
+      <c r="A92" s="28">
         <v>3</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
     </row>
     <row r="93" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="33">
+      <c r="A94" s="28">
         <v>4</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
     </row>
     <row r="95" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
     </row>
     <row r="96" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="33">
+      <c r="A96" s="28">
         <v>5</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
     </row>
     <row r="97" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
@@ -3123,25 +3127,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="A96:A97"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="B92:E92"/>
@@ -3154,12 +3145,25 @@
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="A86:A91"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3170,1780 +3174,1860 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B93963-36CB-405F-A01B-190B1E5F585B}">
   <dimension ref="A2:H144"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="M150" sqref="M150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" style="20" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" style="21" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="41"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="41"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="80" t="s">
         <v>187</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
     </row>
     <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="26" t="s">
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+    </row>
+    <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="26" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+    </row>
+    <row r="23" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="26" t="s">
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="78"/>
+    </row>
+    <row r="30" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="81"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="26"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="26" t="s">
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="78"/>
+    </row>
+    <row r="32" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="D32" s="81"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="78"/>
+    </row>
+    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+    </row>
+    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-    </row>
-    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="26" t="s">
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+    </row>
+    <row r="41" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="D41" s="81"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+    </row>
+    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="26" t="s">
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+    </row>
+    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="D43" s="81"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+    </row>
+    <row r="44" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+    </row>
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="83" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="80" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="26" t="s">
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+    </row>
+    <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" s="81"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="78" t="s">
         <v>243</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="D52" s="81"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+    </row>
+    <row r="53" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="81" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="26" t="s">
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+    </row>
+    <row r="54" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="81"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="D54" s="81"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+    </row>
+    <row r="55" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A55" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+    </row>
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+    </row>
+    <row r="57" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+    <row r="58" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+    <row r="59" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="80" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="26" t="s">
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="41"/>
-    </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="26" t="s">
+      <c r="D60" s="79"/>
+      <c r="E60" s="80"/>
+    </row>
+    <row r="61" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="79"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="41" t="s">
+      <c r="D61" s="79"/>
+      <c r="E61" s="80" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="26" t="s">
+    <row r="62" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="79"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="41"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
+    </row>
+    <row r="63" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="80" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="26" t="s">
+      <c r="A64" s="79"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="41"/>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="26" t="s">
+      <c r="D64" s="79"/>
+      <c r="E64" s="80"/>
+    </row>
+    <row r="65" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="79"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="41" t="s">
+      <c r="D65" s="79"/>
+      <c r="E65" s="80" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="26" t="s">
+    <row r="66" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="41"/>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="43" t="s">
+      <c r="D66" s="79"/>
+      <c r="E66" s="80"/>
+    </row>
+    <row r="67" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="80" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="26" t="s">
+      <c r="A68" s="79"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="41"/>
-    </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="26" t="s">
+      <c r="D68" s="79"/>
+      <c r="E68" s="80"/>
+    </row>
+    <row r="69" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="79"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="D69" s="43"/>
-      <c r="E69" s="41" t="s">
+      <c r="D69" s="79"/>
+      <c r="E69" s="80" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="26" t="s">
+    <row r="70" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="79"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="43"/>
-      <c r="E70" s="41"/>
-    </row>
-    <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="D70" s="79"/>
+      <c r="E70" s="80"/>
+    </row>
+    <row r="71" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="25" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="84" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="26" t="s">
+    <row r="73" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="79"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="31" t="s">
+      <c r="D73" s="79"/>
+      <c r="E73" s="84" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="31"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="31"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="84"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="31"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="31"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="84"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G78" s="83" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="26" t="s">
+      <c r="F79" s="82"/>
+      <c r="G79" s="82"/>
+    </row>
+    <row r="80" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A80" s="81"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="D80" s="40"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="40" t="s">
+      <c r="D80" s="81"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="82"/>
+    </row>
+    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="40" t="s">
+      <c r="D81" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="27"/>
-    </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="26" t="s">
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="86"/>
+    </row>
+    <row r="82" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="81"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-    </row>
-    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="D82" s="81"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="82"/>
+    </row>
+    <row r="83" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-    </row>
-    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+    </row>
+    <row r="84" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="77" t="s">
         <v>326</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-    </row>
-    <row r="85" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+    </row>
+    <row r="85" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+    <row r="86" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="77" t="s">
         <v>328</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="43" t="s">
+    <row r="87" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="80" t="s">
         <v>302</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="80" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="26" t="s">
+      <c r="A88" s="79"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="43"/>
-      <c r="E88" s="41"/>
-    </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="26" t="s">
+      <c r="D88" s="79"/>
+      <c r="E88" s="80"/>
+    </row>
+    <row r="89" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="79"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D89" s="43"/>
-      <c r="E89" s="41" t="s">
+      <c r="D89" s="79"/>
+      <c r="E89" s="80" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="26" t="s">
+    <row r="90" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="79"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="D90" s="43"/>
-      <c r="E90" s="41"/>
-    </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="43" t="s">
+      <c r="D90" s="79"/>
+      <c r="E90" s="80"/>
+    </row>
+    <row r="91" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="41" t="s">
+      <c r="E91" s="80" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="26" t="s">
+      <c r="A92" s="79"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="41"/>
-    </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="26" t="s">
+      <c r="D92" s="79"/>
+      <c r="E92" s="80"/>
+    </row>
+    <row r="93" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="79"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="41" t="s">
+      <c r="D93" s="79"/>
+      <c r="E93" s="80" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="26" t="s">
+    <row r="94" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="79"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="41"/>
-    </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="D94" s="79"/>
+      <c r="E94" s="80"/>
+    </row>
+    <row r="95" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="80" t="s">
         <v>312</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E95" s="41" t="s">
+      <c r="E95" s="80" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="26" t="s">
+      <c r="A96" s="79"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="41"/>
-    </row>
-    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="26" t="s">
+      <c r="D96" s="79"/>
+      <c r="E96" s="80"/>
+    </row>
+    <row r="97" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="79"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="D97" s="43"/>
-      <c r="E97" s="41" t="s">
+      <c r="D97" s="79"/>
+      <c r="E97" s="80" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="26" t="s">
+    <row r="98" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="79"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="D98" s="43"/>
-      <c r="E98" s="41"/>
-    </row>
-    <row r="99" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="D98" s="79"/>
+      <c r="E98" s="80"/>
+    </row>
+    <row r="99" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="43" t="s">
+    <row r="100" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A100" s="79" t="s">
         <v>333</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="84" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="26" t="s">
+    <row r="101" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="79"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="D101" s="43"/>
-      <c r="E101" s="31" t="s">
+      <c r="D101" s="79"/>
+      <c r="E101" s="84" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="20"/>
-      <c r="C105" s="24"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="83"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F106" s="24" t="s">
+      <c r="F106" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="G106" s="24" t="s">
+      <c r="G106" s="83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
+    <row r="107" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A107" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="D107" s="28" t="s">
+      <c r="D107" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-    </row>
-    <row r="108" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="43" t="s">
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+    </row>
+    <row r="108" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A108" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="D108" s="43" t="s">
+      <c r="D108" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="25" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="29" t="s">
+    <row r="109" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="79"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="79"/>
+      <c r="E109" s="25" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="28" t="s">
+    <row r="110" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="77" t="s">
         <v>341</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C110" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E110" s="25" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="43" t="s">
+    <row r="111" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="D111" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="29" t="s">
+    <row r="112" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A112" s="79"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="25" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="44" t="s">
+      <c r="A115" s="76" t="s">
         <v>352</v>
       </c>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="20"/>
-      <c r="C116" s="24"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="83"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B117" s="20" t="s">
+      <c r="B117" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="D117" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F117" s="24" t="s">
+      <c r="F117" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G117" s="83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+    <row r="118" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A118" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C118" s="31" t="s">
+      <c r="C118" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="D118" s="28" t="s">
+      <c r="D118" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-    </row>
-    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
+      <c r="F118" s="78"/>
+      <c r="G118" s="78"/>
+    </row>
+    <row r="119" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="84" t="s">
         <v>359</v>
       </c>
-      <c r="D119" s="28" t="s">
+      <c r="D119" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E119" s="29" t="s">
+      <c r="E119" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="44" t="s">
+      <c r="A122" s="76" t="s">
         <v>361</v>
       </c>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="20"/>
-      <c r="C123" s="24"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="83"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="83"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C124" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="D124" s="20" t="s">
+      <c r="D124" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F124" s="24" t="s">
+      <c r="F124" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="G124" s="24" t="s">
+      <c r="G124" s="83" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="81" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="41" t="s">
+      <c r="B125" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C125" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="D125" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="E125" s="41" t="s">
+      <c r="E125" s="80" t="s">
         <v>363</v>
       </c>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-    </row>
-    <row r="126" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="31" t="s">
+      <c r="F125" s="78"/>
+      <c r="G125" s="78"/>
+    </row>
+    <row r="126" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="81"/>
+      <c r="B126" s="80"/>
+      <c r="C126" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="26"/>
-    </row>
-    <row r="127" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="40" t="s">
+      <c r="D126" s="81"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="78"/>
+    </row>
+    <row r="127" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="C127" s="31" t="s">
+      <c r="C127" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="D127" s="40" t="s">
+      <c r="D127" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="E127" s="41" t="s">
+      <c r="E127" s="80" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="41"/>
-      <c r="C128" s="31" t="s">
+    <row r="128" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="81"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="D128" s="40"/>
-      <c r="E128" s="41"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="80"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="44" t="s">
+      <c r="A131" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D133" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F133" s="20" t="s">
+      <c r="F133" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G133" s="20" t="s">
+      <c r="G133" s="21" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="79" t="s">
         <v>373</v>
       </c>
-      <c r="B134" s="41" t="s">
+      <c r="B134" s="80" t="s">
         <v>374</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D134" s="40" t="s">
+      <c r="D134" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="E134" s="41" t="s">
+      <c r="E134" s="80" t="s">
         <v>377</v>
       </c>
-      <c r="F134" s="42"/>
-      <c r="G134" s="42"/>
+      <c r="F134" s="82"/>
+      <c r="G134" s="82"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="41"/>
-      <c r="C135" t="s">
+      <c r="A135" s="79"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D135" s="40"/>
-      <c r="E135" s="41"/>
-      <c r="F135" s="42"/>
-      <c r="G135" s="42"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="82"/>
+      <c r="G135" s="82"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="44" t="s">
+      <c r="A138" s="76" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
+      <c r="B138" s="76"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="76"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D140" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E140" s="20" t="s">
+      <c r="E140" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F140" s="20" t="s">
+      <c r="F140" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G140" s="20" t="s">
+      <c r="G140" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="20" t="s">
+    <row r="141" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="25" t="s">
         <v>379</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D141" s="28" t="s">
+      <c r="D141" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E141" s="29" t="s">
+      <c r="E141" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-    </row>
-    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
+      <c r="F141" s="78"/>
+      <c r="G141" s="78"/>
+    </row>
+    <row r="142" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B142" s="29" t="s">
+      <c r="B142" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C142" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="D142" s="20" t="s">
+      <c r="D142" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E142" s="29" t="s">
+      <c r="E142" s="25" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A143" s="20" t="s">
+    <row r="143" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="C143" s="29" t="s">
+      <c r="C143" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="D143" s="20" t="s">
+      <c r="D143" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E143" s="29" t="s">
+      <c r="E143" s="25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
+    <row r="144" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B144" s="29" t="s">
+      <c r="B144" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C144" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="D144" s="20" t="s">
+      <c r="D144" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="E144" s="29" t="s">
+      <c r="E144" s="25" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="D42:D43"/>
@@ -4968,104 +5052,25 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5076,7 +5081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B363A2F-369B-403F-9836-935BE19CD1E5}">
   <dimension ref="A3:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5099,11 +5104,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
@@ -5150,14 +5155,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>196</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -5168,7 +5173,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>198</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -5179,7 +5184,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>199</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -5190,14 +5195,14 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -5208,7 +5213,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>218</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -5219,7 +5224,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="26" t="s">
         <v>219</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -5230,7 +5235,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>220</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -5241,14 +5246,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>224</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -5259,7 +5264,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -5270,7 +5275,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>226</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -5281,7 +5286,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>227</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -5292,14 +5297,14 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="36" t="s">
         <v>400</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>238</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -5310,7 +5315,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="26" t="s">
         <v>239</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -5321,7 +5326,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>240</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -5332,7 +5337,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>241</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -5354,7 +5359,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>255</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -5420,14 +5425,14 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="26" t="s">
         <v>323</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -5438,7 +5443,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>324</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -5449,7 +5454,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>325</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -5460,7 +5465,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="26" t="s">
         <v>326</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -5482,7 +5487,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="26" t="s">
         <v>328</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -5548,11 +5553,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -5599,14 +5604,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="26" t="s">
         <v>354</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -5617,7 +5622,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="26" t="s">
         <v>355</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -5628,14 +5633,14 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="26" t="s">
         <v>365</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -5646,7 +5651,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="26" t="s">
         <v>366</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -5657,11 +5662,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
@@ -5675,11 +5680,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="37" t="s">
         <v>403</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
@@ -5727,17 +5732,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5761,27 +5766,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -5802,12 +5807,12 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -5818,12 +5823,12 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -5834,12 +5839,12 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -5850,12 +5855,12 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -5866,12 +5871,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -5882,12 +5887,12 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5898,12 +5903,12 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -5914,12 +5919,12 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -5930,12 +5935,12 @@
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -5946,12 +5951,12 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -5962,12 +5967,12 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -5978,12 +5983,12 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -5994,12 +5999,12 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -6010,12 +6015,12 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -6026,12 +6031,12 @@
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -6042,12 +6047,12 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -6055,202 +6060,202 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="60">
         <v>17</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="28">
         <v>18</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="A27" s="59">
         <v>19</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="28">
         <v>20</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="55"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="28">
         <v>21</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
@@ -6260,6 +6265,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F19:J32"/>
@@ -6276,28 +6303,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6322,27 +6327,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="4">
         <v>1</v>
       </c>
@@ -6360,13 +6365,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -6377,12 +6382,12 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -6393,12 +6398,12 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -6409,12 +6414,12 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -6425,12 +6430,12 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -6441,12 +6446,12 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -6457,12 +6462,12 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
@@ -6473,12 +6478,12 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -6489,12 +6494,12 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -6505,12 +6510,12 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6521,12 +6526,12 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -6534,13 +6539,13 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -6551,12 +6556,12 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -6567,12 +6572,12 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -6583,12 +6588,12 @@
       <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -6599,12 +6604,12 @@
       <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -6615,12 +6620,12 @@
       <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -6631,12 +6636,12 @@
       <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -6647,12 +6652,12 @@
       <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -6663,12 +6668,12 @@
       <c r="A22" s="4">
         <v>8</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -6679,12 +6684,12 @@
       <c r="A23" s="4">
         <v>9</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -6692,13 +6697,13 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
@@ -6709,12 +6714,12 @@
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -6725,12 +6730,12 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -6741,12 +6746,12 @@
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -6757,12 +6762,12 @@
       <c r="A28" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -6773,12 +6778,12 @@
       <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -6789,12 +6794,12 @@
       <c r="A30" s="4">
         <v>6</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -6802,232 +6807,223 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="28">
         <v>7</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="28">
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="28">
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="28">
         <v>10</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="28">
         <v>11</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="A41" s="28">
         <v>12</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="A43" s="28">
         <v>13</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
@@ -7042,20 +7038,29 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7079,31 +7084,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="79" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="42" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
@@ -7119,10 +7124,10 @@
       <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="K3" s="54"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -7757,28 +7762,28 @@
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="79" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="72" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
@@ -7794,9 +7799,9 @@
       <c r="F3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -7829,12 +7834,12 @@
         <f xml:space="preserve"> (G4 / H4) * 100</f>
         <v>100</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -7867,12 +7872,12 @@
         <f xml:space="preserve"> (G5 / H5) * 100</f>
         <v>100</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -7905,12 +7910,12 @@
         <f t="shared" ref="I6:I18" si="2" xml:space="preserve"> (G6 / H6) * 100</f>
         <v>100</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -7943,12 +7948,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -7981,12 +7986,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -8019,12 +8024,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -8057,12 +8062,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -8095,12 +8100,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -8133,12 +8138,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -8171,12 +8176,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -8209,12 +8214,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
@@ -8247,12 +8252,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -8285,12 +8290,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -8323,12 +8328,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
@@ -8361,12 +8366,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -8399,12 +8404,12 @@
         <f xml:space="preserve"> (G19 / H19) * 100</f>
         <v>80</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -8437,12 +8442,12 @@
         <f t="shared" ref="I20:I28" si="5" xml:space="preserve"> (G20 / H20) * 100</f>
         <v>80</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
@@ -8475,12 +8480,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
@@ -8513,12 +8518,12 @@
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -8551,12 +8556,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J23" s="78" t="s">
+      <c r="J23" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
@@ -8589,12 +8594,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -8627,12 +8632,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
@@ -8665,12 +8670,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -8703,12 +8708,12 @@
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
@@ -8741,12 +8746,12 @@
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
@@ -8785,12 +8790,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="J6:M6"/>
@@ -8803,18 +8814,12 @@
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
